--- a/SourceData/budgetmapping/BGModData.xlsx
+++ b/SourceData/budgetmapping/BGModData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\budgetmapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDFF959-DEE7-4736-B197-34A45EF7724F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434FA2D8-60AD-4EE0-9D7D-54A76BDE570F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3416,10 +3416,10 @@
     <t>Actiivity</t>
   </si>
   <si>
-    <t>1, 2, 3</t>
-  </si>
-  <si>
-    <t>Drugs/Supplies, Labor, Visits</t>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>Interventions, Labor, Visits</t>
   </si>
 </sst>
 </file>
@@ -9584,9 +9584,9 @@
   <dimension ref="A1:R454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="P395" sqref="P395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SourceData/budgetmapping/BGModData.xlsx
+++ b/SourceData/budgetmapping/BGModData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\budgetmapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434FA2D8-60AD-4EE0-9D7D-54A76BDE570F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A79CE49-7389-4982-97BF-90BF75CBFABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BudgetDB" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="1135">
   <si>
     <t>TG_AggregateConstant</t>
   </si>
@@ -3413,13 +3413,40 @@
     <t>&lt;Indicator Type ID&gt;</t>
   </si>
   <si>
-    <t>Actiivity</t>
-  </si>
-  <si>
     <t>2, 3, 4</t>
   </si>
   <si>
     <t>Interventions, Labor, Visits</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Medical equipment</t>
+  </si>
+  <si>
+    <t>Health post</t>
+  </si>
+  <si>
+    <t>Prehospital emergency</t>
+  </si>
+  <si>
+    <t>Health centre</t>
+  </si>
+  <si>
+    <t>District/General hospital</t>
+  </si>
+  <si>
+    <t>National/Regional/Provincial hospital</t>
+  </si>
+  <si>
+    <t>Free-standing general outpatient clinic</t>
+  </si>
+  <si>
+    <t>Free-standing specialized outpatient clinic</t>
   </si>
 </sst>
 </file>
@@ -4291,7 +4318,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -5161,7 +5188,7 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
@@ -9584,9 +9611,9 @@
   <dimension ref="A1:R454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="P395" sqref="P395"/>
+      <selection pane="bottomLeft" activeCell="P410" sqref="P410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9678,7 +9705,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9728,7 +9755,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9778,7 +9805,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9828,7 +9855,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -9878,7 +9905,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -9928,7 +9955,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -9978,7 +10005,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10028,7 +10055,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -10078,7 +10105,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -10128,7 +10155,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -10178,7 +10205,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -10228,7 +10255,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -10278,7 +10305,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -10328,7 +10355,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -10378,7 +10405,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -10428,7 +10455,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10478,7 +10505,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10528,7 +10555,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -10578,7 +10605,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10628,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10678,7 +10705,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -10728,7 +10755,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10778,7 +10805,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -10828,7 +10855,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10878,7 +10905,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -10928,7 +10955,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -10978,7 +11005,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -11028,7 +11055,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -11078,7 +11105,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -11128,7 +11155,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11178,7 +11205,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -11228,7 +11255,7 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11278,7 +11305,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -11328,7 +11355,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -11378,7 +11405,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -11428,7 +11455,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -11478,7 +11505,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -11528,7 +11555,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11578,7 +11605,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -11628,7 +11655,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -11678,7 +11705,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -11728,7 +11755,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -11778,7 +11805,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11828,7 +11855,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -11878,7 +11905,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -11928,7 +11955,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -11978,7 +12005,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -12028,7 +12055,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -12078,7 +12105,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -12128,7 +12155,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -12178,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -12228,7 +12255,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -12278,7 +12305,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -12328,7 +12355,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -12378,7 +12405,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -12428,7 +12455,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -12478,7 +12505,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -12528,7 +12555,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -12578,7 +12605,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -12628,7 +12655,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -12678,7 +12705,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -12728,7 +12755,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -12778,7 +12805,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -12828,7 +12855,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -12878,7 +12905,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -12928,7 +12955,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -12978,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -13028,7 +13055,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -13078,7 +13105,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -13128,7 +13155,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -13178,7 +13205,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K72">
         <v>3</v>
@@ -13228,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -13278,7 +13305,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -13328,7 +13355,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -13378,7 +13405,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K76">
         <v>3</v>
@@ -13428,7 +13455,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -13478,7 +13505,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -13528,7 +13555,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -13578,7 +13605,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -13628,7 +13655,7 @@
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -13678,7 +13705,7 @@
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K82">
         <v>3</v>
@@ -13728,7 +13755,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -13778,7 +13805,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -13828,7 +13855,7 @@
         <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K85">
         <v>3</v>
@@ -13878,7 +13905,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -13928,7 +13955,7 @@
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K87">
         <v>3</v>
@@ -13978,7 +14005,7 @@
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K88">
         <v>4</v>
@@ -14028,7 +14055,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K89">
         <v>4</v>
@@ -14078,7 +14105,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K90">
         <v>4</v>
@@ -14128,7 +14155,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K91">
         <v>4</v>
@@ -14178,7 +14205,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -14228,7 +14255,7 @@
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K93">
         <v>4</v>
@@ -14278,7 +14305,7 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K94">
         <v>4</v>
@@ -14328,7 +14355,7 @@
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K95">
         <v>4</v>
@@ -14378,7 +14405,7 @@
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -14428,7 +14455,7 @@
         <v>3</v>
       </c>
       <c r="H97" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K97">
         <v>4</v>
@@ -14478,7 +14505,7 @@
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K98">
         <v>4</v>
@@ -14528,7 +14555,7 @@
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K99">
         <v>4</v>
@@ -14578,7 +14605,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -14628,7 +14655,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K101">
         <v>4</v>
@@ -14678,7 +14705,7 @@
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K102">
         <v>4</v>
@@ -14728,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K103">
         <v>4</v>
@@ -14778,7 +14805,7 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -14828,7 +14855,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K105">
         <v>4</v>
@@ -14878,7 +14905,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K106">
         <v>4</v>
@@ -14928,7 +14955,7 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K107">
         <v>4</v>
@@ -14978,7 +15005,7 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K108">
         <v>4</v>
@@ -15028,7 +15055,7 @@
         <v>3</v>
       </c>
       <c r="H109" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K109">
         <v>4</v>
@@ -15078,7 +15105,7 @@
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -15128,7 +15155,7 @@
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K111">
         <v>4</v>
@@ -15178,7 +15205,7 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K112">
         <v>4</v>
@@ -15228,7 +15255,7 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K113">
         <v>4</v>
@@ -15278,7 +15305,7 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K114">
         <v>4</v>
@@ -15328,7 +15355,7 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K115">
         <v>4</v>
@@ -15378,7 +15405,7 @@
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K116">
         <v>4</v>
@@ -15428,7 +15455,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -15478,7 +15505,7 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K118">
         <v>4</v>
@@ -15528,7 +15555,7 @@
         <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K119">
         <v>4</v>
@@ -15578,7 +15605,7 @@
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K120">
         <v>4</v>
@@ -15628,7 +15655,7 @@
         <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K121">
         <v>4</v>
@@ -15678,7 +15705,7 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K122">
         <v>4</v>
@@ -15728,7 +15755,7 @@
         <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K123">
         <v>4</v>
@@ -15778,7 +15805,7 @@
         <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K124">
         <v>4</v>
@@ -15828,7 +15855,7 @@
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -15878,7 +15905,7 @@
         <v>3</v>
       </c>
       <c r="H126" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K126">
         <v>4</v>
@@ -15928,7 +15955,7 @@
         <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K127">
         <v>4</v>
@@ -15978,7 +16005,7 @@
         <v>3</v>
       </c>
       <c r="H128" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K128">
         <v>4</v>
@@ -16028,7 +16055,7 @@
         <v>3</v>
       </c>
       <c r="H129" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K129">
         <v>4</v>
@@ -16078,7 +16105,7 @@
         <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K130">
         <v>4</v>
@@ -16128,7 +16155,7 @@
         <v>3</v>
       </c>
       <c r="H131" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -16178,7 +16205,7 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K132">
         <v>4</v>
@@ -16228,7 +16255,7 @@
         <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K133">
         <v>4</v>
@@ -16278,7 +16305,7 @@
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K134">
         <v>4</v>
@@ -16328,7 +16355,7 @@
         <v>3</v>
       </c>
       <c r="H135" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K135">
         <v>4</v>
@@ -16378,7 +16405,7 @@
         <v>3</v>
       </c>
       <c r="H136" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K136">
         <v>4</v>
@@ -16428,7 +16455,7 @@
         <v>3</v>
       </c>
       <c r="H137" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K137">
         <v>4</v>
@@ -16478,7 +16505,7 @@
         <v>3</v>
       </c>
       <c r="H138" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K138">
         <v>4</v>
@@ -16528,7 +16555,7 @@
         <v>3</v>
       </c>
       <c r="H139" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K139">
         <v>4</v>
@@ -16578,7 +16605,7 @@
         <v>3</v>
       </c>
       <c r="H140" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K140">
         <v>4</v>
@@ -16628,7 +16655,7 @@
         <v>3</v>
       </c>
       <c r="H141" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K141">
         <v>4</v>
@@ -16678,7 +16705,7 @@
         <v>3</v>
       </c>
       <c r="H142" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -16728,7 +16755,7 @@
         <v>3</v>
       </c>
       <c r="H143" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K143">
         <v>4</v>
@@ -16778,7 +16805,7 @@
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K144">
         <v>4</v>
@@ -16828,7 +16855,7 @@
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K145">
         <v>4</v>
@@ -16878,7 +16905,7 @@
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K146">
         <v>4</v>
@@ -16928,7 +16955,7 @@
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K147">
         <v>4</v>
@@ -16978,7 +17005,7 @@
         <v>3</v>
       </c>
       <c r="H148" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K148">
         <v>4</v>
@@ -17028,7 +17055,7 @@
         <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K149">
         <v>5</v>
@@ -17078,7 +17105,7 @@
         <v>3</v>
       </c>
       <c r="H150" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K150">
         <v>5</v>
@@ -17128,7 +17155,7 @@
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K151">
         <v>5</v>
@@ -17178,7 +17205,7 @@
         <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K152">
         <v>5</v>
@@ -17228,7 +17255,7 @@
         <v>3</v>
       </c>
       <c r="H153" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K153">
         <v>5</v>
@@ -17278,7 +17305,7 @@
         <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K154">
         <v>5</v>
@@ -17328,7 +17355,7 @@
         <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K155">
         <v>5</v>
@@ -17378,7 +17405,7 @@
         <v>3</v>
       </c>
       <c r="H156" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K156">
         <v>5</v>
@@ -17428,7 +17455,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K157">
         <v>5</v>
@@ -17478,7 +17505,7 @@
         <v>3</v>
       </c>
       <c r="H158" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K158">
         <v>5</v>
@@ -17528,7 +17555,7 @@
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K159">
         <v>5</v>
@@ -17578,7 +17605,7 @@
         <v>3</v>
       </c>
       <c r="H160" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K160">
         <v>5</v>
@@ -17628,7 +17655,7 @@
         <v>3</v>
       </c>
       <c r="H161" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K161">
         <v>5</v>
@@ -17678,7 +17705,7 @@
         <v>3</v>
       </c>
       <c r="H162" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K162">
         <v>5</v>
@@ -17728,7 +17755,7 @@
         <v>3</v>
       </c>
       <c r="H163" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K163">
         <v>5</v>
@@ -17778,7 +17805,7 @@
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K164">
         <v>5</v>
@@ -17828,7 +17855,7 @@
         <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K165">
         <v>5</v>
@@ -17878,7 +17905,7 @@
         <v>3</v>
       </c>
       <c r="H166" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K166">
         <v>5</v>
@@ -17928,7 +17955,7 @@
         <v>3</v>
       </c>
       <c r="H167" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K167">
         <v>5</v>
@@ -17978,7 +18005,7 @@
         <v>3</v>
       </c>
       <c r="H168" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K168">
         <v>5</v>
@@ -18028,7 +18055,7 @@
         <v>3</v>
       </c>
       <c r="H169" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K169">
         <v>5</v>
@@ -18078,7 +18105,7 @@
         <v>3</v>
       </c>
       <c r="H170" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K170">
         <v>5</v>
@@ -18128,7 +18155,7 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K171">
         <v>5</v>
@@ -18178,7 +18205,7 @@
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K172">
         <v>6</v>
@@ -18228,7 +18255,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K173">
         <v>6</v>
@@ -18278,7 +18305,7 @@
         <v>3</v>
       </c>
       <c r="H174" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K174">
         <v>6</v>
@@ -18328,7 +18355,7 @@
         <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K175">
         <v>6</v>
@@ -18378,7 +18405,7 @@
         <v>3</v>
       </c>
       <c r="H176" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K176">
         <v>7</v>
@@ -18428,7 +18455,7 @@
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K177">
         <v>7</v>
@@ -18478,7 +18505,7 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K178">
         <v>7</v>
@@ -18528,7 +18555,7 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K179">
         <v>7</v>
@@ -18578,7 +18605,7 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K180">
         <v>7</v>
@@ -18628,7 +18655,7 @@
         <v>3</v>
       </c>
       <c r="H181" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K181">
         <v>7</v>
@@ -18678,7 +18705,7 @@
         <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K182">
         <v>8</v>
@@ -18728,7 +18755,7 @@
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K183">
         <v>8</v>
@@ -18778,7 +18805,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K184">
         <v>8</v>
@@ -18828,7 +18855,7 @@
         <v>3</v>
       </c>
       <c r="H185" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K185">
         <v>8</v>
@@ -18878,7 +18905,7 @@
         <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K186">
         <v>8</v>
@@ -18928,7 +18955,7 @@
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K187">
         <v>8</v>
@@ -18978,7 +19005,7 @@
         <v>3</v>
       </c>
       <c r="H188" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K188">
         <v>8</v>
@@ -19028,7 +19055,7 @@
         <v>3</v>
       </c>
       <c r="H189" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K189">
         <v>8</v>
@@ -19078,7 +19105,7 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K190">
         <v>8</v>
@@ -19128,7 +19155,7 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K191">
         <v>9</v>
@@ -19178,7 +19205,7 @@
         <v>3</v>
       </c>
       <c r="H192" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K192">
         <v>9</v>
@@ -19228,7 +19255,7 @@
         <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K193">
         <v>9</v>
@@ -19278,7 +19305,7 @@
         <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K194">
         <v>9</v>
@@ -19328,7 +19355,7 @@
         <v>3</v>
       </c>
       <c r="H195" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K195">
         <v>9</v>
@@ -19378,7 +19405,7 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K196">
         <v>9</v>
@@ -19428,7 +19455,7 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K197">
         <v>9</v>
@@ -19478,7 +19505,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K198">
         <v>9</v>
@@ -19528,7 +19555,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K199">
         <v>9</v>
@@ -19578,7 +19605,7 @@
         <v>3</v>
       </c>
       <c r="H200" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K200">
         <v>9</v>
@@ -19628,7 +19655,7 @@
         <v>3</v>
       </c>
       <c r="H201" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K201">
         <v>9</v>
@@ -19678,7 +19705,7 @@
         <v>3</v>
       </c>
       <c r="H202" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K202">
         <v>9</v>
@@ -19728,7 +19755,7 @@
         <v>3</v>
       </c>
       <c r="H203" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K203">
         <v>9</v>
@@ -19778,7 +19805,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K204">
         <v>9</v>
@@ -19828,7 +19855,7 @@
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K205">
         <v>9</v>
@@ -19878,7 +19905,7 @@
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K206">
         <v>9</v>
@@ -19928,7 +19955,7 @@
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K207">
         <v>9</v>
@@ -19978,7 +20005,7 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K208">
         <v>9</v>
@@ -20028,7 +20055,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K209">
         <v>9</v>
@@ -20078,7 +20105,7 @@
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K210">
         <v>9</v>
@@ -20128,7 +20155,7 @@
         <v>3</v>
       </c>
       <c r="H211" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K211">
         <v>9</v>
@@ -20178,7 +20205,7 @@
         <v>3</v>
       </c>
       <c r="H212" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K212">
         <v>9</v>
@@ -20228,7 +20255,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K213">
         <v>9</v>
@@ -20278,7 +20305,7 @@
         <v>3</v>
       </c>
       <c r="H214" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K214">
         <v>9</v>
@@ -20328,7 +20355,7 @@
         <v>3</v>
       </c>
       <c r="H215" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K215">
         <v>9</v>
@@ -20378,7 +20405,7 @@
         <v>3</v>
       </c>
       <c r="H216" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K216">
         <v>9</v>
@@ -20428,7 +20455,7 @@
         <v>3</v>
       </c>
       <c r="H217" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K217">
         <v>9</v>
@@ -20478,7 +20505,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K218">
         <v>9</v>
@@ -20528,7 +20555,7 @@
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K219">
         <v>9</v>
@@ -20578,7 +20605,7 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K220">
         <v>9</v>
@@ -20628,7 +20655,7 @@
         <v>3</v>
       </c>
       <c r="H221" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K221">
         <v>9</v>
@@ -20678,7 +20705,7 @@
         <v>3</v>
       </c>
       <c r="H222" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K222">
         <v>9</v>
@@ -20728,7 +20755,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K223">
         <v>9</v>
@@ -20778,7 +20805,7 @@
         <v>3</v>
       </c>
       <c r="H224" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K224">
         <v>9</v>
@@ -20828,7 +20855,7 @@
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K225">
         <v>9</v>
@@ -20878,7 +20905,7 @@
         <v>3</v>
       </c>
       <c r="H226" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K226">
         <v>9</v>
@@ -20928,7 +20955,7 @@
         <v>3</v>
       </c>
       <c r="H227" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K227">
         <v>9</v>
@@ -20978,7 +21005,7 @@
         <v>3</v>
       </c>
       <c r="H228" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K228">
         <v>9</v>
@@ -21028,7 +21055,7 @@
         <v>3</v>
       </c>
       <c r="H229" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K229">
         <v>9</v>
@@ -21078,7 +21105,7 @@
         <v>3</v>
       </c>
       <c r="H230" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K230">
         <v>9</v>
@@ -21128,7 +21155,7 @@
         <v>3</v>
       </c>
       <c r="H231" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K231">
         <v>9</v>
@@ -21178,7 +21205,7 @@
         <v>3</v>
       </c>
       <c r="H232" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K232">
         <v>9</v>
@@ -21228,7 +21255,7 @@
         <v>3</v>
       </c>
       <c r="H233" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K233">
         <v>9</v>
@@ -21278,7 +21305,7 @@
         <v>3</v>
       </c>
       <c r="H234" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K234">
         <v>9</v>
@@ -21328,7 +21355,7 @@
         <v>3</v>
       </c>
       <c r="H235" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K235">
         <v>9</v>
@@ -21378,7 +21405,7 @@
         <v>3</v>
       </c>
       <c r="H236" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K236">
         <v>9</v>
@@ -21428,7 +21455,7 @@
         <v>3</v>
       </c>
       <c r="H237" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K237">
         <v>9</v>
@@ -21478,7 +21505,7 @@
         <v>3</v>
       </c>
       <c r="H238" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K238">
         <v>9</v>
@@ -21528,7 +21555,7 @@
         <v>3</v>
       </c>
       <c r="H239" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K239">
         <v>9</v>
@@ -21578,7 +21605,7 @@
         <v>3</v>
       </c>
       <c r="H240" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K240">
         <v>9</v>
@@ -21628,7 +21655,7 @@
         <v>3</v>
       </c>
       <c r="H241" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K241">
         <v>9</v>
@@ -21678,7 +21705,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K242">
         <v>9</v>
@@ -21728,7 +21755,7 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K243">
         <v>9</v>
@@ -21778,7 +21805,7 @@
         <v>3</v>
       </c>
       <c r="H244" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K244">
         <v>9</v>
@@ -21828,7 +21855,7 @@
         <v>3</v>
       </c>
       <c r="H245" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K245">
         <v>9</v>
@@ -21878,7 +21905,7 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K246">
         <v>9</v>
@@ -21928,7 +21955,7 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K247">
         <v>9</v>
@@ -21978,7 +22005,7 @@
         <v>3</v>
       </c>
       <c r="H248" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K248">
         <v>9</v>
@@ -22028,7 +22055,7 @@
         <v>3</v>
       </c>
       <c r="H249" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K249">
         <v>9</v>
@@ -22078,7 +22105,7 @@
         <v>3</v>
       </c>
       <c r="H250" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K250">
         <v>9</v>
@@ -22128,7 +22155,7 @@
         <v>3</v>
       </c>
       <c r="H251" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K251">
         <v>9</v>
@@ -22178,7 +22205,7 @@
         <v>3</v>
       </c>
       <c r="H252" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K252">
         <v>9</v>
@@ -22228,7 +22255,7 @@
         <v>3</v>
       </c>
       <c r="H253" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K253">
         <v>10</v>
@@ -22278,7 +22305,7 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K254">
         <v>10</v>
@@ -22328,7 +22355,7 @@
         <v>3</v>
       </c>
       <c r="H255" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K255">
         <v>10</v>
@@ -22378,7 +22405,7 @@
         <v>3</v>
       </c>
       <c r="H256" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K256">
         <v>10</v>
@@ -22428,7 +22455,7 @@
         <v>3</v>
       </c>
       <c r="H257" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K257">
         <v>10</v>
@@ -22478,7 +22505,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K258">
         <v>10</v>
@@ -22528,7 +22555,7 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K259">
         <v>10</v>
@@ -22578,7 +22605,7 @@
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K260">
         <v>10</v>
@@ -22628,7 +22655,7 @@
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K261">
         <v>10</v>
@@ -22678,7 +22705,7 @@
         <v>3</v>
       </c>
       <c r="H262" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K262">
         <v>10</v>
@@ -22728,7 +22755,7 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K263">
         <v>10</v>
@@ -22778,7 +22805,7 @@
         <v>3</v>
       </c>
       <c r="H264" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K264">
         <v>10</v>
@@ -22828,7 +22855,7 @@
         <v>3</v>
       </c>
       <c r="H265" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K265">
         <v>11</v>
@@ -22878,7 +22905,7 @@
         <v>3</v>
       </c>
       <c r="H266" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K266">
         <v>11</v>
@@ -22928,7 +22955,7 @@
         <v>3</v>
       </c>
       <c r="H267" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K267">
         <v>11</v>
@@ -22978,7 +23005,7 @@
         <v>3</v>
       </c>
       <c r="H268" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K268">
         <v>11</v>
@@ -23028,7 +23055,7 @@
         <v>3</v>
       </c>
       <c r="H269" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K269">
         <v>11</v>
@@ -23078,7 +23105,7 @@
         <v>3</v>
       </c>
       <c r="H270" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K270">
         <v>11</v>
@@ -23128,7 +23155,7 @@
         <v>3</v>
       </c>
       <c r="H271" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K271">
         <v>11</v>
@@ -23178,7 +23205,7 @@
         <v>3</v>
       </c>
       <c r="H272" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K272">
         <v>11</v>
@@ -23228,7 +23255,7 @@
         <v>3</v>
       </c>
       <c r="H273" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K273">
         <v>11</v>
@@ -23278,7 +23305,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K274">
         <v>11</v>
@@ -23328,7 +23355,7 @@
         <v>3</v>
       </c>
       <c r="H275" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K275">
         <v>11</v>
@@ -23378,7 +23405,7 @@
         <v>3</v>
       </c>
       <c r="H276" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K276">
         <v>11</v>
@@ -23428,7 +23455,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K277">
         <v>11</v>
@@ -23478,7 +23505,7 @@
         <v>3</v>
       </c>
       <c r="H278" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K278">
         <v>11</v>
@@ -23528,7 +23555,7 @@
         <v>3</v>
       </c>
       <c r="H279" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K279">
         <v>11</v>
@@ -23578,7 +23605,7 @@
         <v>3</v>
       </c>
       <c r="H280" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K280">
         <v>11</v>
@@ -23628,7 +23655,7 @@
         <v>3</v>
       </c>
       <c r="H281" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K281">
         <v>11</v>
@@ -23678,7 +23705,7 @@
         <v>3</v>
       </c>
       <c r="H282" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K282">
         <v>11</v>
@@ -23728,7 +23755,7 @@
         <v>3</v>
       </c>
       <c r="H283" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K283">
         <v>11</v>
@@ -23778,7 +23805,7 @@
         <v>3</v>
       </c>
       <c r="H284" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K284">
         <v>11</v>
@@ -23828,7 +23855,7 @@
         <v>3</v>
       </c>
       <c r="H285" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K285">
         <v>12</v>
@@ -23878,7 +23905,7 @@
         <v>3</v>
       </c>
       <c r="H286" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K286">
         <v>12</v>
@@ -23928,7 +23955,7 @@
         <v>3</v>
       </c>
       <c r="H287" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K287">
         <v>12</v>
@@ -23978,7 +24005,7 @@
         <v>3</v>
       </c>
       <c r="H288" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K288">
         <v>12</v>
@@ -24028,7 +24055,7 @@
         <v>3</v>
       </c>
       <c r="H289" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K289">
         <v>12</v>
@@ -24078,7 +24105,7 @@
         <v>3</v>
       </c>
       <c r="H290" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K290">
         <v>12</v>
@@ -24128,7 +24155,7 @@
         <v>3</v>
       </c>
       <c r="H291" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K291">
         <v>12</v>
@@ -24178,7 +24205,7 @@
         <v>3</v>
       </c>
       <c r="H292" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K292">
         <v>12</v>
@@ -24228,7 +24255,7 @@
         <v>3</v>
       </c>
       <c r="H293" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K293">
         <v>12</v>
@@ -24278,7 +24305,7 @@
         <v>3</v>
       </c>
       <c r="H294" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K294">
         <v>12</v>
@@ -24328,7 +24355,7 @@
         <v>3</v>
       </c>
       <c r="H295" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K295">
         <v>12</v>
@@ -24378,7 +24405,7 @@
         <v>3</v>
       </c>
       <c r="H296" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K296">
         <v>12</v>
@@ -24428,7 +24455,7 @@
         <v>3</v>
       </c>
       <c r="H297" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K297">
         <v>12</v>
@@ -24478,7 +24505,7 @@
         <v>3</v>
       </c>
       <c r="H298" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K298">
         <v>12</v>
@@ -24528,7 +24555,7 @@
         <v>3</v>
       </c>
       <c r="H299" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K299">
         <v>12</v>
@@ -24578,7 +24605,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K300">
         <v>12</v>
@@ -24628,7 +24655,7 @@
         <v>3</v>
       </c>
       <c r="H301" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K301">
         <v>12</v>
@@ -24678,7 +24705,7 @@
         <v>3</v>
       </c>
       <c r="H302" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K302">
         <v>12</v>
@@ -24728,7 +24755,7 @@
         <v>3</v>
       </c>
       <c r="H303" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K303">
         <v>12</v>
@@ -24778,7 +24805,7 @@
         <v>3</v>
       </c>
       <c r="H304" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K304">
         <v>12</v>
@@ -24828,7 +24855,7 @@
         <v>3</v>
       </c>
       <c r="H305" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K305">
         <v>12</v>
@@ -24878,7 +24905,7 @@
         <v>3</v>
       </c>
       <c r="H306" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K306">
         <v>12</v>
@@ -24928,7 +24955,7 @@
         <v>3</v>
       </c>
       <c r="H307" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K307">
         <v>12</v>
@@ -24978,7 +25005,7 @@
         <v>3</v>
       </c>
       <c r="H308" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K308">
         <v>12</v>
@@ -25028,7 +25055,7 @@
         <v>3</v>
       </c>
       <c r="H309" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K309">
         <v>12</v>
@@ -25078,7 +25105,7 @@
         <v>3</v>
       </c>
       <c r="H310" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K310">
         <v>12</v>
@@ -25128,7 +25155,7 @@
         <v>3</v>
       </c>
       <c r="H311" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K311">
         <v>12</v>
@@ -25178,7 +25205,7 @@
         <v>3</v>
       </c>
       <c r="H312" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K312">
         <v>12</v>
@@ -25228,7 +25255,7 @@
         <v>3</v>
       </c>
       <c r="H313" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K313">
         <v>12</v>
@@ -25278,7 +25305,7 @@
         <v>3</v>
       </c>
       <c r="H314" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K314">
         <v>12</v>
@@ -25328,7 +25355,7 @@
         <v>3</v>
       </c>
       <c r="H315" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K315">
         <v>12</v>
@@ -25378,7 +25405,7 @@
         <v>3</v>
       </c>
       <c r="H316" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K316">
         <v>12</v>
@@ -25428,7 +25455,7 @@
         <v>3</v>
       </c>
       <c r="H317" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K317">
         <v>12</v>
@@ -25478,7 +25505,7 @@
         <v>3</v>
       </c>
       <c r="H318" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K318">
         <v>12</v>
@@ -25528,7 +25555,7 @@
         <v>3</v>
       </c>
       <c r="H319" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K319">
         <v>12</v>
@@ -25578,7 +25605,7 @@
         <v>3</v>
       </c>
       <c r="H320" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K320">
         <v>12</v>
@@ -25628,7 +25655,7 @@
         <v>3</v>
       </c>
       <c r="H321" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K321">
         <v>12</v>
@@ -25678,7 +25705,7 @@
         <v>3</v>
       </c>
       <c r="H322" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K322">
         <v>12</v>
@@ -25728,7 +25755,7 @@
         <v>3</v>
       </c>
       <c r="H323" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K323">
         <v>12</v>
@@ -25778,7 +25805,7 @@
         <v>3</v>
       </c>
       <c r="H324" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K324">
         <v>12</v>
@@ -25828,7 +25855,7 @@
         <v>3</v>
       </c>
       <c r="H325" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K325">
         <v>12</v>
@@ -25878,7 +25905,7 @@
         <v>3</v>
       </c>
       <c r="H326" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K326">
         <v>12</v>
@@ -25928,7 +25955,7 @@
         <v>3</v>
       </c>
       <c r="H327" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K327">
         <v>12</v>
@@ -25978,7 +26005,7 @@
         <v>3</v>
       </c>
       <c r="H328" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K328">
         <v>12</v>
@@ -26028,7 +26055,7 @@
         <v>3</v>
       </c>
       <c r="H329" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K329">
         <v>12</v>
@@ -26078,7 +26105,7 @@
         <v>3</v>
       </c>
       <c r="H330" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K330">
         <v>12</v>
@@ -26128,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="H331" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K331">
         <v>12</v>
@@ -26178,7 +26205,7 @@
         <v>3</v>
       </c>
       <c r="H332" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K332">
         <v>12</v>
@@ -26228,7 +26255,7 @@
         <v>3</v>
       </c>
       <c r="H333" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K333">
         <v>12</v>
@@ -26278,7 +26305,7 @@
         <v>3</v>
       </c>
       <c r="H334" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K334">
         <v>12</v>
@@ -26328,7 +26355,7 @@
         <v>3</v>
       </c>
       <c r="H335" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K335">
         <v>12</v>
@@ -26378,7 +26405,7 @@
         <v>3</v>
       </c>
       <c r="H336" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K336">
         <v>12</v>
@@ -26428,7 +26455,7 @@
         <v>3</v>
       </c>
       <c r="H337" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K337">
         <v>12</v>
@@ -26478,7 +26505,7 @@
         <v>3</v>
       </c>
       <c r="H338" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K338">
         <v>12</v>
@@ -26528,7 +26555,7 @@
         <v>3</v>
       </c>
       <c r="H339" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K339">
         <v>12</v>
@@ -26578,7 +26605,7 @@
         <v>3</v>
       </c>
       <c r="H340" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K340">
         <v>12</v>
@@ -26628,7 +26655,7 @@
         <v>3</v>
       </c>
       <c r="H341" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K341">
         <v>12</v>
@@ -26678,7 +26705,7 @@
         <v>3</v>
       </c>
       <c r="H342" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K342">
         <v>12</v>
@@ -26725,10 +26752,10 @@
         <v>629</v>
       </c>
       <c r="G343" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H343" t="s">
         <v>1124</v>
-      </c>
-      <c r="H343" t="s">
-        <v>1125</v>
       </c>
       <c r="I343">
         <v>641</v>
@@ -26763,10 +26790,10 @@
         <v>629</v>
       </c>
       <c r="G344" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H344" t="s">
         <v>1124</v>
-      </c>
-      <c r="H344" t="s">
-        <v>1125</v>
       </c>
       <c r="I344">
         <v>549</v>
@@ -26801,10 +26828,10 @@
         <v>629</v>
       </c>
       <c r="G345" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H345" t="s">
         <v>1124</v>
-      </c>
-      <c r="H345" t="s">
-        <v>1125</v>
       </c>
       <c r="I345">
         <v>550</v>
@@ -26839,10 +26866,10 @@
         <v>629</v>
       </c>
       <c r="G346" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H346" t="s">
         <v>1124</v>
-      </c>
-      <c r="H346" t="s">
-        <v>1125</v>
       </c>
       <c r="I346">
         <v>551</v>
@@ -26877,10 +26904,10 @@
         <v>629</v>
       </c>
       <c r="G347" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H347" t="s">
         <v>1124</v>
-      </c>
-      <c r="H347" t="s">
-        <v>1125</v>
       </c>
       <c r="I347">
         <v>552</v>
@@ -26915,10 +26942,10 @@
         <v>629</v>
       </c>
       <c r="G348" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H348" t="s">
         <v>1124</v>
-      </c>
-      <c r="H348" t="s">
-        <v>1125</v>
       </c>
       <c r="I348">
         <v>553</v>
@@ -26953,10 +26980,10 @@
         <v>629</v>
       </c>
       <c r="G349" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H349" t="s">
         <v>1124</v>
-      </c>
-      <c r="H349" t="s">
-        <v>1125</v>
       </c>
       <c r="I349">
         <v>554</v>
@@ -26991,10 +27018,10 @@
         <v>629</v>
       </c>
       <c r="G350" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H350" t="s">
         <v>1124</v>
-      </c>
-      <c r="H350" t="s">
-        <v>1125</v>
       </c>
       <c r="I350">
         <v>555</v>
@@ -27029,10 +27056,10 @@
         <v>629</v>
       </c>
       <c r="G351" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H351" t="s">
         <v>1124</v>
-      </c>
-      <c r="H351" t="s">
-        <v>1125</v>
       </c>
       <c r="I351">
         <v>556</v>
@@ -27067,10 +27094,10 @@
         <v>629</v>
       </c>
       <c r="G352" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H352" t="s">
         <v>1124</v>
-      </c>
-      <c r="H352" t="s">
-        <v>1125</v>
       </c>
       <c r="I352">
         <v>557</v>
@@ -27105,10 +27132,10 @@
         <v>629</v>
       </c>
       <c r="G353" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H353" t="s">
         <v>1124</v>
-      </c>
-      <c r="H353" t="s">
-        <v>1125</v>
       </c>
       <c r="I353">
         <v>558</v>
@@ -27143,10 +27170,10 @@
         <v>629</v>
       </c>
       <c r="G354" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H354" t="s">
         <v>1124</v>
-      </c>
-      <c r="H354" t="s">
-        <v>1125</v>
       </c>
       <c r="I354">
         <v>559</v>
@@ -27181,10 +27208,10 @@
         <v>629</v>
       </c>
       <c r="G355" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H355" t="s">
         <v>1124</v>
-      </c>
-      <c r="H355" t="s">
-        <v>1125</v>
       </c>
       <c r="I355">
         <v>560</v>
@@ -27219,10 +27246,10 @@
         <v>629</v>
       </c>
       <c r="G356" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H356" t="s">
         <v>1124</v>
-      </c>
-      <c r="H356" t="s">
-        <v>1125</v>
       </c>
       <c r="I356">
         <v>561</v>
@@ -27257,10 +27284,10 @@
         <v>629</v>
       </c>
       <c r="G357" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H357" t="s">
         <v>1124</v>
-      </c>
-      <c r="H357" t="s">
-        <v>1125</v>
       </c>
       <c r="I357">
         <v>562</v>
@@ -27295,10 +27322,10 @@
         <v>629</v>
       </c>
       <c r="G358" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H358" t="s">
         <v>1124</v>
-      </c>
-      <c r="H358" t="s">
-        <v>1125</v>
       </c>
       <c r="I358">
         <v>563</v>
@@ -27333,10 +27360,10 @@
         <v>629</v>
       </c>
       <c r="G359" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H359" t="s">
         <v>1124</v>
-      </c>
-      <c r="H359" t="s">
-        <v>1125</v>
       </c>
       <c r="I359">
         <v>564</v>
@@ -27371,10 +27398,10 @@
         <v>629</v>
       </c>
       <c r="G360" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H360" t="s">
         <v>1124</v>
-      </c>
-      <c r="H360" t="s">
-        <v>1125</v>
       </c>
       <c r="I360">
         <v>565</v>
@@ -27409,10 +27436,10 @@
         <v>629</v>
       </c>
       <c r="G361" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H361" t="s">
         <v>1124</v>
-      </c>
-      <c r="H361" t="s">
-        <v>1125</v>
       </c>
       <c r="I361">
         <v>650</v>
@@ -27447,10 +27474,10 @@
         <v>629</v>
       </c>
       <c r="G362" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H362" t="s">
         <v>1124</v>
-      </c>
-      <c r="H362" t="s">
-        <v>1125</v>
       </c>
       <c r="I362">
         <v>567</v>
@@ -27485,10 +27512,10 @@
         <v>629</v>
       </c>
       <c r="G363" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H363" t="s">
         <v>1124</v>
-      </c>
-      <c r="H363" t="s">
-        <v>1125</v>
       </c>
       <c r="I363">
         <v>569</v>
@@ -27523,10 +27550,10 @@
         <v>629</v>
       </c>
       <c r="G364" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H364" t="s">
         <v>1124</v>
-      </c>
-      <c r="H364" t="s">
-        <v>1125</v>
       </c>
       <c r="I364">
         <v>570</v>
@@ -27561,10 +27588,10 @@
         <v>629</v>
       </c>
       <c r="G365" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H365" t="s">
         <v>1124</v>
-      </c>
-      <c r="H365" t="s">
-        <v>1125</v>
       </c>
       <c r="I365">
         <v>571</v>
@@ -27599,10 +27626,10 @@
         <v>629</v>
       </c>
       <c r="G366" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H366" t="s">
         <v>1124</v>
-      </c>
-      <c r="H366" t="s">
-        <v>1125</v>
       </c>
       <c r="I366">
         <v>572</v>
@@ -27637,10 +27664,10 @@
         <v>629</v>
       </c>
       <c r="G367" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H367" t="s">
         <v>1124</v>
-      </c>
-      <c r="H367" t="s">
-        <v>1125</v>
       </c>
       <c r="I367">
         <v>573</v>
@@ -27675,10 +27702,10 @@
         <v>629</v>
       </c>
       <c r="G368" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H368" t="s">
         <v>1124</v>
-      </c>
-      <c r="H368" t="s">
-        <v>1125</v>
       </c>
       <c r="I368">
         <v>574</v>
@@ -27713,10 +27740,10 @@
         <v>629</v>
       </c>
       <c r="G369" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H369" t="s">
         <v>1124</v>
-      </c>
-      <c r="H369" t="s">
-        <v>1125</v>
       </c>
       <c r="I369">
         <v>575</v>
@@ -27751,10 +27778,10 @@
         <v>629</v>
       </c>
       <c r="G370" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H370" t="s">
         <v>1124</v>
-      </c>
-      <c r="H370" t="s">
-        <v>1125</v>
       </c>
       <c r="I370">
         <v>576</v>
@@ -27789,10 +27816,10 @@
         <v>629</v>
       </c>
       <c r="G371" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H371" t="s">
         <v>1124</v>
-      </c>
-      <c r="H371" t="s">
-        <v>1125</v>
       </c>
       <c r="I371">
         <v>577</v>
@@ -27827,10 +27854,10 @@
         <v>629</v>
       </c>
       <c r="G372" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H372" t="s">
         <v>1124</v>
-      </c>
-      <c r="H372" t="s">
-        <v>1125</v>
       </c>
       <c r="I372">
         <v>578</v>
@@ -27865,10 +27892,10 @@
         <v>629</v>
       </c>
       <c r="G373" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H373" t="s">
         <v>1124</v>
-      </c>
-      <c r="H373" t="s">
-        <v>1125</v>
       </c>
       <c r="I373">
         <v>579</v>
@@ -27903,10 +27930,10 @@
         <v>629</v>
       </c>
       <c r="G374" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H374" t="s">
         <v>1124</v>
-      </c>
-      <c r="H374" t="s">
-        <v>1125</v>
       </c>
       <c r="I374">
         <v>580</v>
@@ -27941,10 +27968,10 @@
         <v>629</v>
       </c>
       <c r="G375" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H375" t="s">
         <v>1124</v>
-      </c>
-      <c r="H375" t="s">
-        <v>1125</v>
       </c>
       <c r="I375">
         <v>581</v>
@@ -27979,10 +28006,10 @@
         <v>629</v>
       </c>
       <c r="G376" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H376" t="s">
         <v>1124</v>
-      </c>
-      <c r="H376" t="s">
-        <v>1125</v>
       </c>
       <c r="I376">
         <v>582</v>
@@ -28017,10 +28044,10 @@
         <v>629</v>
       </c>
       <c r="G377" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H377" t="s">
         <v>1124</v>
-      </c>
-      <c r="H377" t="s">
-        <v>1125</v>
       </c>
       <c r="I377">
         <v>583</v>
@@ -28055,10 +28082,10 @@
         <v>629</v>
       </c>
       <c r="G378" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H378" t="s">
         <v>1124</v>
-      </c>
-      <c r="H378" t="s">
-        <v>1125</v>
       </c>
       <c r="I378">
         <v>584</v>
@@ -28093,10 +28120,10 @@
         <v>629</v>
       </c>
       <c r="G379" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H379" t="s">
         <v>1124</v>
-      </c>
-      <c r="H379" t="s">
-        <v>1125</v>
       </c>
       <c r="I379">
         <v>585</v>
@@ -28131,10 +28158,10 @@
         <v>629</v>
       </c>
       <c r="G380" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H380" t="s">
         <v>1124</v>
-      </c>
-      <c r="H380" t="s">
-        <v>1125</v>
       </c>
       <c r="I380">
         <v>586</v>
@@ -28169,10 +28196,10 @@
         <v>629</v>
       </c>
       <c r="G381" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H381" t="s">
         <v>1124</v>
-      </c>
-      <c r="H381" t="s">
-        <v>1125</v>
       </c>
       <c r="I381">
         <v>649</v>
@@ -28207,10 +28234,10 @@
         <v>629</v>
       </c>
       <c r="G382" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H382" t="s">
         <v>1124</v>
-      </c>
-      <c r="H382" t="s">
-        <v>1125</v>
       </c>
       <c r="I382">
         <v>597</v>
@@ -28245,10 +28272,10 @@
         <v>629</v>
       </c>
       <c r="G383" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H383" t="s">
         <v>1124</v>
-      </c>
-      <c r="H383" t="s">
-        <v>1125</v>
       </c>
       <c r="I383">
         <v>598</v>
@@ -28283,10 +28310,10 @@
         <v>629</v>
       </c>
       <c r="G384" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H384" t="s">
         <v>1124</v>
-      </c>
-      <c r="H384" t="s">
-        <v>1125</v>
       </c>
       <c r="I384">
         <v>599</v>
@@ -28321,10 +28348,10 @@
         <v>629</v>
       </c>
       <c r="G385" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H385" t="s">
         <v>1124</v>
-      </c>
-      <c r="H385" t="s">
-        <v>1125</v>
       </c>
       <c r="I385">
         <v>600</v>
@@ -28359,10 +28386,10 @@
         <v>629</v>
       </c>
       <c r="G386" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H386" t="s">
         <v>1124</v>
-      </c>
-      <c r="H386" t="s">
-        <v>1125</v>
       </c>
       <c r="I386">
         <v>601</v>
@@ -28397,10 +28424,10 @@
         <v>629</v>
       </c>
       <c r="G387" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H387" t="s">
         <v>1124</v>
-      </c>
-      <c r="H387" t="s">
-        <v>1125</v>
       </c>
       <c r="I387">
         <v>602</v>
@@ -28435,10 +28462,10 @@
         <v>629</v>
       </c>
       <c r="G388" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H388" t="s">
         <v>1124</v>
-      </c>
-      <c r="H388" t="s">
-        <v>1125</v>
       </c>
       <c r="I388">
         <v>603</v>
@@ -28473,10 +28500,10 @@
         <v>629</v>
       </c>
       <c r="G389" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H389" t="s">
         <v>1124</v>
-      </c>
-      <c r="H389" t="s">
-        <v>1125</v>
       </c>
       <c r="I389">
         <v>604</v>
@@ -28511,10 +28538,10 @@
         <v>629</v>
       </c>
       <c r="G390" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H390" t="s">
         <v>1124</v>
-      </c>
-      <c r="H390" t="s">
-        <v>1125</v>
       </c>
       <c r="I390">
         <v>605</v>
@@ -28549,10 +28576,10 @@
         <v>629</v>
       </c>
       <c r="G391" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H391" t="s">
         <v>1124</v>
-      </c>
-      <c r="H391" t="s">
-        <v>1125</v>
       </c>
       <c r="I391">
         <v>606</v>
@@ -28587,10 +28614,10 @@
         <v>629</v>
       </c>
       <c r="G392" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H392" t="s">
         <v>1124</v>
-      </c>
-      <c r="H392" t="s">
-        <v>1125</v>
       </c>
       <c r="I392">
         <v>607</v>
@@ -28625,10 +28652,10 @@
         <v>629</v>
       </c>
       <c r="G393" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H393" t="s">
         <v>1124</v>
-      </c>
-      <c r="H393" t="s">
-        <v>1125</v>
       </c>
       <c r="I393">
         <v>608</v>
@@ -28663,10 +28690,10 @@
         <v>629</v>
       </c>
       <c r="G394" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H394" t="s">
         <v>1124</v>
-      </c>
-      <c r="H394" t="s">
-        <v>1125</v>
       </c>
       <c r="I394">
         <v>609</v>
@@ -28701,10 +28728,10 @@
         <v>629</v>
       </c>
       <c r="G395" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H395" t="s">
         <v>1124</v>
-      </c>
-      <c r="H395" t="s">
-        <v>1125</v>
       </c>
       <c r="I395">
         <v>610</v>
@@ -28739,10 +28766,10 @@
         <v>629</v>
       </c>
       <c r="G396" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H396" t="s">
         <v>1124</v>
-      </c>
-      <c r="H396" t="s">
-        <v>1125</v>
       </c>
       <c r="I396">
         <v>611</v>
@@ -28777,10 +28804,10 @@
         <v>629</v>
       </c>
       <c r="G397" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H397" t="s">
         <v>1124</v>
-      </c>
-      <c r="H397" t="s">
-        <v>1125</v>
       </c>
       <c r="I397">
         <v>612</v>
@@ -28815,10 +28842,10 @@
         <v>629</v>
       </c>
       <c r="G398" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H398" t="s">
         <v>1124</v>
-      </c>
-      <c r="H398" t="s">
-        <v>1125</v>
       </c>
       <c r="I398">
         <v>613</v>
@@ -28853,10 +28880,10 @@
         <v>629</v>
       </c>
       <c r="G399" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H399" t="s">
         <v>1124</v>
-      </c>
-      <c r="H399" t="s">
-        <v>1125</v>
       </c>
       <c r="I399">
         <v>614</v>
@@ -28891,10 +28918,10 @@
         <v>629</v>
       </c>
       <c r="G400" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H400" t="s">
         <v>1124</v>
-      </c>
-      <c r="H400" t="s">
-        <v>1125</v>
       </c>
       <c r="I400">
         <v>615</v>
@@ -28929,10 +28956,10 @@
         <v>629</v>
       </c>
       <c r="G401" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H401" t="s">
         <v>1124</v>
-      </c>
-      <c r="H401" t="s">
-        <v>1125</v>
       </c>
       <c r="I401">
         <v>616</v>
@@ -28967,10 +28994,10 @@
         <v>629</v>
       </c>
       <c r="G402" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H402" t="s">
         <v>1124</v>
-      </c>
-      <c r="H402" t="s">
-        <v>1125</v>
       </c>
       <c r="I402">
         <v>617</v>
@@ -29005,10 +29032,10 @@
         <v>629</v>
       </c>
       <c r="G403" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H403" t="s">
         <v>1124</v>
-      </c>
-      <c r="H403" t="s">
-        <v>1125</v>
       </c>
       <c r="I403">
         <v>618</v>
@@ -29043,10 +29070,10 @@
         <v>629</v>
       </c>
       <c r="G404" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H404" t="s">
         <v>1124</v>
-      </c>
-      <c r="H404" t="s">
-        <v>1125</v>
       </c>
       <c r="I404">
         <v>619</v>
@@ -29081,10 +29108,10 @@
         <v>629</v>
       </c>
       <c r="G405" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H405" t="s">
         <v>1124</v>
-      </c>
-      <c r="H405" t="s">
-        <v>1125</v>
       </c>
       <c r="I405">
         <v>620</v>
@@ -29119,10 +29146,10 @@
         <v>629</v>
       </c>
       <c r="G406" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H406" t="s">
         <v>1124</v>
-      </c>
-      <c r="H406" t="s">
-        <v>1125</v>
       </c>
       <c r="I406">
         <v>621</v>
@@ -29157,10 +29184,10 @@
         <v>629</v>
       </c>
       <c r="G407" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H407" t="s">
         <v>1124</v>
-      </c>
-      <c r="H407" t="s">
-        <v>1125</v>
       </c>
       <c r="I407">
         <v>622</v>
@@ -29195,10 +29222,10 @@
         <v>629</v>
       </c>
       <c r="G408" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H408" t="s">
         <v>1124</v>
-      </c>
-      <c r="H408" t="s">
-        <v>1125</v>
       </c>
       <c r="I408">
         <v>623</v>
@@ -29233,10 +29260,10 @@
         <v>629</v>
       </c>
       <c r="G409" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H409" t="s">
         <v>1124</v>
-      </c>
-      <c r="H409" t="s">
-        <v>1125</v>
       </c>
       <c r="I409">
         <v>624</v>
@@ -29271,10 +29298,10 @@
         <v>629</v>
       </c>
       <c r="G410" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H410" t="s">
         <v>1124</v>
-      </c>
-      <c r="H410" t="s">
-        <v>1125</v>
       </c>
       <c r="I410">
         <v>625</v>
@@ -29309,10 +29336,10 @@
         <v>629</v>
       </c>
       <c r="G411" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H411" t="s">
         <v>1124</v>
-      </c>
-      <c r="H411" t="s">
-        <v>1125</v>
       </c>
       <c r="I411">
         <v>35</v>
@@ -29347,10 +29374,10 @@
         <v>629</v>
       </c>
       <c r="G412" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H412" t="s">
         <v>1124</v>
-      </c>
-      <c r="H412" t="s">
-        <v>1125</v>
       </c>
       <c r="I412">
         <v>626</v>
@@ -29385,10 +29412,10 @@
         <v>629</v>
       </c>
       <c r="G413" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H413" t="s">
         <v>1124</v>
-      </c>
-      <c r="H413" t="s">
-        <v>1125</v>
       </c>
       <c r="I413">
         <v>627</v>
@@ -29423,10 +29450,10 @@
         <v>629</v>
       </c>
       <c r="G414" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H414" t="s">
         <v>1124</v>
-      </c>
-      <c r="H414" t="s">
-        <v>1125</v>
       </c>
       <c r="I414">
         <v>49</v>
@@ -29439,6 +29466,272 @@
       </c>
       <c r="R414" t="s">
         <v>1045</v>
+      </c>
+    </row>
+    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>2</v>
+      </c>
+      <c r="B415" t="s">
+        <v>630</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>240</v>
+      </c>
+      <c r="E415">
+        <v>20</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G415">
+        <v>4</v>
+      </c>
+      <c r="H415" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I415">
+        <v>1</v>
+      </c>
+      <c r="J415" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q415">
+        <v>56</v>
+      </c>
+      <c r="R415" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>2</v>
+      </c>
+      <c r="B416" t="s">
+        <v>630</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>240</v>
+      </c>
+      <c r="E416">
+        <v>20</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G416">
+        <v>4</v>
+      </c>
+      <c r="H416" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I416">
+        <v>2</v>
+      </c>
+      <c r="J416" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q416">
+        <v>56</v>
+      </c>
+      <c r="R416" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>2</v>
+      </c>
+      <c r="B417" t="s">
+        <v>630</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>240</v>
+      </c>
+      <c r="E417">
+        <v>20</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G417">
+        <v>4</v>
+      </c>
+      <c r="H417" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I417">
+        <v>3</v>
+      </c>
+      <c r="J417" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q417">
+        <v>56</v>
+      </c>
+      <c r="R417" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>2</v>
+      </c>
+      <c r="B418" t="s">
+        <v>630</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>240</v>
+      </c>
+      <c r="E418">
+        <v>20</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G418">
+        <v>4</v>
+      </c>
+      <c r="H418" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I418">
+        <v>4</v>
+      </c>
+      <c r="J418" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q418">
+        <v>56</v>
+      </c>
+      <c r="R418" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>2</v>
+      </c>
+      <c r="B419" t="s">
+        <v>630</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>240</v>
+      </c>
+      <c r="E419">
+        <v>20</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G419">
+        <v>4</v>
+      </c>
+      <c r="H419" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I419">
+        <v>6</v>
+      </c>
+      <c r="J419" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q419">
+        <v>56</v>
+      </c>
+      <c r="R419" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>2</v>
+      </c>
+      <c r="B420" t="s">
+        <v>630</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
+        <v>240</v>
+      </c>
+      <c r="E420">
+        <v>20</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G420">
+        <v>4</v>
+      </c>
+      <c r="H420" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I420">
+        <v>7</v>
+      </c>
+      <c r="J420" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q420">
+        <v>56</v>
+      </c>
+      <c r="R420" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>2</v>
+      </c>
+      <c r="B421" t="s">
+        <v>630</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
+        <v>240</v>
+      </c>
+      <c r="E421">
+        <v>20</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G421">
+        <v>4</v>
+      </c>
+      <c r="H421" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I421">
+        <v>8</v>
+      </c>
+      <c r="J421" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q421">
+        <v>56</v>
+      </c>
+      <c r="R421" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="454" spans="10:10" x14ac:dyDescent="0.3">

--- a/SourceData/budgetmapping/BGModData.xlsx
+++ b/SourceData/budgetmapping/BGModData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\budgetmapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855680FE-31FB-41D8-8808-BEF8800983B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5674B31-915C-4284-A473-F6B277EFFFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5297,8 +5297,8 @@
   <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9719,10 +9719,10 @@
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="F192" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -9742,10 +9742,10 @@
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F193" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -9765,10 +9765,10 @@
         <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F194" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -9788,10 +9788,10 @@
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F195" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -9811,10 +9811,10 @@
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F196" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G196">
         <v>5</v>
@@ -9834,10 +9834,10 @@
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F197" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G197">
         <v>6</v>
@@ -9857,10 +9857,10 @@
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F198" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G198">
         <v>7</v>
@@ -9880,10 +9880,10 @@
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F199" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G199">
         <v>8</v>
@@ -9903,10 +9903,10 @@
         <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F200" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G200">
         <v>9</v>
@@ -9926,10 +9926,10 @@
         <v>2</v>
       </c>
       <c r="E201" t="s">
-        <v>938</v>
+        <v>1145</v>
       </c>
       <c r="F201" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G201">
         <v>10</v>
@@ -9949,10 +9949,10 @@
         <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>1146</v>
+        <v>938</v>
       </c>
       <c r="F202" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G202">
         <v>11</v>
@@ -9970,12 +9970,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEB4B75-3B81-4BF7-80FE-92A0D4964378}">
-  <dimension ref="A1:R906"/>
+  <dimension ref="A1:S907"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="G413" sqref="G413"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29907,7 +29907,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2</v>
       </c>
@@ -29945,7 +29945,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2</v>
       </c>
@@ -29983,7 +29983,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2</v>
       </c>
@@ -30021,7 +30021,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2</v>
       </c>
@@ -30059,7 +30059,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2</v>
       </c>
@@ -30097,7 +30097,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="422" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5">
         <v>2</v>
       </c>
@@ -30141,13 +30141,14 @@
         <v>639</v>
       </c>
       <c r="Q422" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R422" s="5" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="423" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S422"/>
+    </row>
+    <row r="423" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5">
         <v>2</v>
       </c>
@@ -30191,13 +30192,14 @@
         <v>640</v>
       </c>
       <c r="Q423" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R423" s="5" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="424" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S423"/>
+    </row>
+    <row r="424" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5">
         <v>2</v>
       </c>
@@ -30241,13 +30243,14 @@
         <v>642</v>
       </c>
       <c r="Q424" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R424" s="5" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="425" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S424"/>
+    </row>
+    <row r="425" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5">
         <v>2</v>
       </c>
@@ -30291,13 +30294,14 @@
         <v>644</v>
       </c>
       <c r="Q425" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R425" s="5" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="426" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S425"/>
+    </row>
+    <row r="426" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5">
         <v>2</v>
       </c>
@@ -30341,13 +30345,14 @@
         <v>646</v>
       </c>
       <c r="Q426" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R426" s="5" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="427" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S426"/>
+    </row>
+    <row r="427" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5">
         <v>2</v>
       </c>
@@ -30391,13 +30396,14 @@
         <v>648</v>
       </c>
       <c r="Q427" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R427" s="5" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="428" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S427"/>
+    </row>
+    <row r="428" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5">
         <v>2</v>
       </c>
@@ -30441,13 +30447,14 @@
         <v>651</v>
       </c>
       <c r="Q428" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R428" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="429" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S428"/>
+    </row>
+    <row r="429" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5">
         <v>2</v>
       </c>
@@ -30491,13 +30498,14 @@
         <v>652</v>
       </c>
       <c r="Q429" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R429" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="430" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S429"/>
+    </row>
+    <row r="430" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5">
         <v>2</v>
       </c>
@@ -30541,13 +30549,14 @@
         <v>653</v>
       </c>
       <c r="Q430" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R430" s="5" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="431" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S430"/>
+    </row>
+    <row r="431" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5">
         <v>2</v>
       </c>
@@ -30591,13 +30600,14 @@
         <v>654</v>
       </c>
       <c r="Q431" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R431" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="432" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S431"/>
+    </row>
+    <row r="432" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5">
         <v>2</v>
       </c>
@@ -30641,13 +30651,14 @@
         <v>655</v>
       </c>
       <c r="Q432" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R432" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="433" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S432"/>
+    </row>
+    <row r="433" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5">
         <v>2</v>
       </c>
@@ -30691,13 +30702,14 @@
         <v>656</v>
       </c>
       <c r="Q433" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R433" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="434" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S433"/>
+    </row>
+    <row r="434" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5">
         <v>2</v>
       </c>
@@ -30741,13 +30753,14 @@
         <v>657</v>
       </c>
       <c r="Q434" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R434" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="435" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S434"/>
+    </row>
+    <row r="435" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5">
         <v>2</v>
       </c>
@@ -30791,13 +30804,14 @@
         <v>658</v>
       </c>
       <c r="Q435" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R435" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="436" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S435"/>
+    </row>
+    <row r="436" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5">
         <v>2</v>
       </c>
@@ -30841,13 +30855,14 @@
         <v>659</v>
       </c>
       <c r="Q436" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R436" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="437" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S436"/>
+    </row>
+    <row r="437" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5">
         <v>2</v>
       </c>
@@ -30891,13 +30906,14 @@
         <v>660</v>
       </c>
       <c r="Q437" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R437" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="438" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S437"/>
+    </row>
+    <row r="438" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5">
         <v>2</v>
       </c>
@@ -30941,13 +30957,14 @@
         <v>661</v>
       </c>
       <c r="Q438" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R438" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="439" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S438"/>
+    </row>
+    <row r="439" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5">
         <v>2</v>
       </c>
@@ -30991,13 +31008,14 @@
         <v>662</v>
       </c>
       <c r="Q439" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R439" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="440" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S439"/>
+    </row>
+    <row r="440" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5">
         <v>2</v>
       </c>
@@ -31041,13 +31059,14 @@
         <v>663</v>
       </c>
       <c r="Q440" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R440" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="441" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S440"/>
+    </row>
+    <row r="441" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5">
         <v>2</v>
       </c>
@@ -31091,13 +31110,14 @@
         <v>664</v>
       </c>
       <c r="Q441" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R441" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="442" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S441"/>
+    </row>
+    <row r="442" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5">
         <v>2</v>
       </c>
@@ -31141,13 +31161,14 @@
         <v>665</v>
       </c>
       <c r="Q442" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R442" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="443" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S442"/>
+    </row>
+    <row r="443" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5">
         <v>2</v>
       </c>
@@ -31191,13 +31212,14 @@
         <v>666</v>
       </c>
       <c r="Q443" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R443" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="444" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S443"/>
+    </row>
+    <row r="444" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5">
         <v>2</v>
       </c>
@@ -31241,13 +31263,14 @@
         <v>667</v>
       </c>
       <c r="Q444" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R444" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="445" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S444"/>
+    </row>
+    <row r="445" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5">
         <v>2</v>
       </c>
@@ -31291,13 +31314,14 @@
         <v>668</v>
       </c>
       <c r="Q445" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R445" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="446" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S445"/>
+    </row>
+    <row r="446" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5">
         <v>2</v>
       </c>
@@ -31341,13 +31365,14 @@
         <v>669</v>
       </c>
       <c r="Q446" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R446" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="447" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S446"/>
+    </row>
+    <row r="447" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5">
         <v>2</v>
       </c>
@@ -31391,13 +31416,14 @@
         <v>670</v>
       </c>
       <c r="Q447" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R447" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="448" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S447"/>
+    </row>
+    <row r="448" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="5">
         <v>2</v>
       </c>
@@ -31441,13 +31467,14 @@
         <v>671</v>
       </c>
       <c r="Q448" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R448" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="449" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S448"/>
+    </row>
+    <row r="449" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5">
         <v>2</v>
       </c>
@@ -31491,13 +31518,14 @@
         <v>672</v>
       </c>
       <c r="Q449" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R449" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="450" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S449"/>
+    </row>
+    <row r="450" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5">
         <v>2</v>
       </c>
@@ -31541,13 +31569,14 @@
         <v>674</v>
       </c>
       <c r="Q450" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R450" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="451" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S450"/>
+    </row>
+    <row r="451" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5">
         <v>2</v>
       </c>
@@ -31591,13 +31620,14 @@
         <v>675</v>
       </c>
       <c r="Q451" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R451" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="452" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S451"/>
+    </row>
+    <row r="452" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5">
         <v>2</v>
       </c>
@@ -31641,13 +31671,14 @@
         <v>676</v>
       </c>
       <c r="Q452" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R452" s="5" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="453" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S452"/>
+    </row>
+    <row r="453" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
         <v>2</v>
       </c>
@@ -31691,13 +31722,14 @@
         <v>677</v>
       </c>
       <c r="Q453" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R453" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="454" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S453"/>
+    </row>
+    <row r="454" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="5">
         <v>2</v>
       </c>
@@ -31741,13 +31773,14 @@
         <v>678</v>
       </c>
       <c r="Q454" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R454" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="455" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S454"/>
+    </row>
+    <row r="455" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5">
         <v>2</v>
       </c>
@@ -31791,13 +31824,14 @@
         <v>679</v>
       </c>
       <c r="Q455" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R455" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="456" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S455"/>
+    </row>
+    <row r="456" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5">
         <v>2</v>
       </c>
@@ -31841,13 +31875,14 @@
         <v>680</v>
       </c>
       <c r="Q456" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R456" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="457" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S456"/>
+    </row>
+    <row r="457" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5">
         <v>2</v>
       </c>
@@ -31891,13 +31926,14 @@
         <v>681</v>
       </c>
       <c r="Q457" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R457" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="458" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S457"/>
+    </row>
+    <row r="458" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5">
         <v>2</v>
       </c>
@@ -31941,13 +31977,14 @@
         <v>682</v>
       </c>
       <c r="Q458" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R458" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="459" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S458"/>
+    </row>
+    <row r="459" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5">
         <v>2</v>
       </c>
@@ -31991,13 +32028,14 @@
         <v>683</v>
       </c>
       <c r="Q459" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R459" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="460" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S459"/>
+    </row>
+    <row r="460" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5">
         <v>2</v>
       </c>
@@ -32041,13 +32079,14 @@
         <v>684</v>
       </c>
       <c r="Q460" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R460" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="461" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S460"/>
+    </row>
+    <row r="461" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5">
         <v>2</v>
       </c>
@@ -32091,13 +32130,14 @@
         <v>685</v>
       </c>
       <c r="Q461" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R461" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="462" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S461"/>
+    </row>
+    <row r="462" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5">
         <v>2</v>
       </c>
@@ -32141,13 +32181,14 @@
         <v>687</v>
       </c>
       <c r="Q462" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R462" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="463" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S462"/>
+    </row>
+    <row r="463" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="5">
         <v>2</v>
       </c>
@@ -32191,13 +32232,14 @@
         <v>688</v>
       </c>
       <c r="Q463" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R463" s="5" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="464" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S463"/>
+    </row>
+    <row r="464" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="5">
         <v>2</v>
       </c>
@@ -32241,13 +32283,14 @@
         <v>689</v>
       </c>
       <c r="Q464" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R464" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="465" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S464"/>
+    </row>
+    <row r="465" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5">
         <v>2</v>
       </c>
@@ -32291,13 +32334,14 @@
         <v>690</v>
       </c>
       <c r="Q465" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R465" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="466" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S465"/>
+    </row>
+    <row r="466" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="5">
         <v>2</v>
       </c>
@@ -32341,13 +32385,14 @@
         <v>691</v>
       </c>
       <c r="Q466" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R466" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="467" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S466"/>
+    </row>
+    <row r="467" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="5">
         <v>2</v>
       </c>
@@ -32391,13 +32436,14 @@
         <v>692</v>
       </c>
       <c r="Q467" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R467" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="468" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S467"/>
+    </row>
+    <row r="468" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="5">
         <v>2</v>
       </c>
@@ -32441,13 +32487,14 @@
         <v>693</v>
       </c>
       <c r="Q468" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R468" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="469" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S468"/>
+    </row>
+    <row r="469" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="5">
         <v>2</v>
       </c>
@@ -32491,13 +32538,14 @@
         <v>694</v>
       </c>
       <c r="Q469" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R469" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="470" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S469"/>
+    </row>
+    <row r="470" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="5">
         <v>2</v>
       </c>
@@ -32541,13 +32589,14 @@
         <v>695</v>
       </c>
       <c r="Q470" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R470" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="471" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S470"/>
+    </row>
+    <row r="471" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5">
         <v>2</v>
       </c>
@@ -32591,13 +32640,14 @@
         <v>696</v>
       </c>
       <c r="Q471" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R471" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="472" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S471"/>
+    </row>
+    <row r="472" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="5">
         <v>2</v>
       </c>
@@ -32641,13 +32691,14 @@
         <v>697</v>
       </c>
       <c r="Q472" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R472" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="473" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S472"/>
+    </row>
+    <row r="473" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="5">
         <v>2</v>
       </c>
@@ -32691,13 +32742,14 @@
         <v>698</v>
       </c>
       <c r="Q473" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R473" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="474" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S473"/>
+    </row>
+    <row r="474" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="5">
         <v>2</v>
       </c>
@@ -32741,13 +32793,14 @@
         <v>699</v>
       </c>
       <c r="Q474" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R474" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="475" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S474"/>
+    </row>
+    <row r="475" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="5">
         <v>2</v>
       </c>
@@ -32791,13 +32844,14 @@
         <v>690</v>
       </c>
       <c r="Q475" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R475" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="476" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S475"/>
+    </row>
+    <row r="476" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="5">
         <v>2</v>
       </c>
@@ -32841,13 +32895,14 @@
         <v>701</v>
       </c>
       <c r="Q476" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R476" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="477" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S476"/>
+    </row>
+    <row r="477" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5">
         <v>2</v>
       </c>
@@ -32891,13 +32946,14 @@
         <v>702</v>
       </c>
       <c r="Q477" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R477" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="478" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S477"/>
+    </row>
+    <row r="478" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="5">
         <v>2</v>
       </c>
@@ -32941,13 +32997,14 @@
         <v>703</v>
       </c>
       <c r="Q478" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R478" s="5" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="479" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S478"/>
+    </row>
+    <row r="479" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5">
         <v>2</v>
       </c>
@@ -32991,13 +33048,14 @@
         <v>704</v>
       </c>
       <c r="Q479" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R479" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="480" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S479"/>
+    </row>
+    <row r="480" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5">
         <v>2</v>
       </c>
@@ -33041,13 +33099,14 @@
         <v>705</v>
       </c>
       <c r="Q480" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R480" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="481" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S480"/>
+    </row>
+    <row r="481" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5">
         <v>2</v>
       </c>
@@ -33091,13 +33150,14 @@
         <v>706</v>
       </c>
       <c r="Q481" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R481" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="482" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S481"/>
+    </row>
+    <row r="482" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="5">
         <v>2</v>
       </c>
@@ -33141,13 +33201,14 @@
         <v>707</v>
       </c>
       <c r="Q482" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R482" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="483" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S482"/>
+    </row>
+    <row r="483" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5">
         <v>2</v>
       </c>
@@ -33191,13 +33252,14 @@
         <v>708</v>
       </c>
       <c r="Q483" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R483" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="484" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S483"/>
+    </row>
+    <row r="484" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5">
         <v>2</v>
       </c>
@@ -33241,13 +33303,14 @@
         <v>709</v>
       </c>
       <c r="Q484" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R484" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="485" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S484"/>
+    </row>
+    <row r="485" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5">
         <v>2</v>
       </c>
@@ -33291,13 +33354,14 @@
         <v>710</v>
       </c>
       <c r="Q485" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R485" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="486" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S485"/>
+    </row>
+    <row r="486" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5">
         <v>2</v>
       </c>
@@ -33341,13 +33405,14 @@
         <v>711</v>
       </c>
       <c r="Q486" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R486" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="487" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S486"/>
+    </row>
+    <row r="487" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5">
         <v>2</v>
       </c>
@@ -33391,13 +33456,14 @@
         <v>712</v>
       </c>
       <c r="Q487" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R487" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="488" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S487"/>
+    </row>
+    <row r="488" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="5">
         <v>2</v>
       </c>
@@ -33441,13 +33507,14 @@
         <v>714</v>
       </c>
       <c r="Q488" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R488" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="489" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S488"/>
+    </row>
+    <row r="489" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5">
         <v>2</v>
       </c>
@@ -33491,13 +33558,14 @@
         <v>716</v>
       </c>
       <c r="Q489" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R489" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="490" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S489"/>
+    </row>
+    <row r="490" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="5">
         <v>2</v>
       </c>
@@ -33541,13 +33609,14 @@
         <v>717</v>
       </c>
       <c r="Q490" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R490" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="491" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S490"/>
+    </row>
+    <row r="491" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5">
         <v>2</v>
       </c>
@@ -33591,13 +33660,14 @@
         <v>718</v>
       </c>
       <c r="Q491" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R491" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="492" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S491"/>
+    </row>
+    <row r="492" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5">
         <v>2</v>
       </c>
@@ -33641,13 +33711,14 @@
         <v>721</v>
       </c>
       <c r="Q492" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R492" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="493" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S492"/>
+    </row>
+    <row r="493" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="5">
         <v>2</v>
       </c>
@@ -33691,13 +33762,14 @@
         <v>722</v>
       </c>
       <c r="Q493" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R493" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="494" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S493"/>
+    </row>
+    <row r="494" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="5">
         <v>2</v>
       </c>
@@ -33741,13 +33813,14 @@
         <v>723</v>
       </c>
       <c r="Q494" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R494" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="495" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S494"/>
+    </row>
+    <row r="495" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5">
         <v>2</v>
       </c>
@@ -33791,13 +33864,14 @@
         <v>725</v>
       </c>
       <c r="Q495" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R495" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="496" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S495"/>
+    </row>
+    <row r="496" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="5">
         <v>2</v>
       </c>
@@ -33841,13 +33915,14 @@
         <v>726</v>
       </c>
       <c r="Q496" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R496" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="497" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S496"/>
+    </row>
+    <row r="497" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5">
         <v>2</v>
       </c>
@@ -33891,13 +33966,14 @@
         <v>727</v>
       </c>
       <c r="Q497" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R497" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="498" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S497"/>
+    </row>
+    <row r="498" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="5">
         <v>2</v>
       </c>
@@ -33941,13 +34017,14 @@
         <v>728</v>
       </c>
       <c r="Q498" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R498" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="499" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S498"/>
+    </row>
+    <row r="499" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="5">
         <v>2</v>
       </c>
@@ -33991,13 +34068,14 @@
         <v>729</v>
       </c>
       <c r="Q499" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R499" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="500" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S499"/>
+    </row>
+    <row r="500" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="5">
         <v>2</v>
       </c>
@@ -34041,13 +34119,14 @@
         <v>730</v>
       </c>
       <c r="Q500" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R500" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="501" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S500"/>
+    </row>
+    <row r="501" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="5">
         <v>2</v>
       </c>
@@ -34091,13 +34170,14 @@
         <v>731</v>
       </c>
       <c r="Q501" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R501" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="502" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S501"/>
+    </row>
+    <row r="502" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="5">
         <v>2</v>
       </c>
@@ -34141,13 +34221,14 @@
         <v>732</v>
       </c>
       <c r="Q502" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R502" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="503" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S502"/>
+    </row>
+    <row r="503" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5">
         <v>2</v>
       </c>
@@ -34191,13 +34272,14 @@
         <v>733</v>
       </c>
       <c r="Q503" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R503" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="504" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S503"/>
+    </row>
+    <row r="504" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="5">
         <v>2</v>
       </c>
@@ -34241,13 +34323,14 @@
         <v>734</v>
       </c>
       <c r="Q504" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R504" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="505" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S504"/>
+    </row>
+    <row r="505" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="5">
         <v>2</v>
       </c>
@@ -34291,13 +34374,14 @@
         <v>735</v>
       </c>
       <c r="Q505" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R505" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="506" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S505"/>
+    </row>
+    <row r="506" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="5">
         <v>2</v>
       </c>
@@ -34341,13 +34425,14 @@
         <v>737</v>
       </c>
       <c r="Q506" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R506" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="507" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S506"/>
+    </row>
+    <row r="507" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5">
         <v>2</v>
       </c>
@@ -34391,13 +34476,14 @@
         <v>738</v>
       </c>
       <c r="Q507" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R507" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="508" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S507"/>
+    </row>
+    <row r="508" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="5">
         <v>2</v>
       </c>
@@ -34441,13 +34527,14 @@
         <v>741</v>
       </c>
       <c r="Q508" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R508" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="509" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S508"/>
+    </row>
+    <row r="509" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="5">
         <v>2</v>
       </c>
@@ -34491,13 +34578,14 @@
         <v>742</v>
       </c>
       <c r="Q509" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R509" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="510" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S509"/>
+    </row>
+    <row r="510" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="5">
         <v>2</v>
       </c>
@@ -34541,13 +34629,14 @@
         <v>743</v>
       </c>
       <c r="Q510" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R510" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="511" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S510"/>
+    </row>
+    <row r="511" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="5">
         <v>2</v>
       </c>
@@ -34591,13 +34680,14 @@
         <v>744</v>
       </c>
       <c r="Q511" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R511" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="512" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S511"/>
+    </row>
+    <row r="512" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="5">
         <v>2</v>
       </c>
@@ -34641,13 +34731,14 @@
         <v>745</v>
       </c>
       <c r="Q512" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R512" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="513" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S512"/>
+    </row>
+    <row r="513" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5">
         <v>2</v>
       </c>
@@ -34691,13 +34782,14 @@
         <v>746</v>
       </c>
       <c r="Q513" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R513" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="514" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S513"/>
+    </row>
+    <row r="514" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="5">
         <v>2</v>
       </c>
@@ -34741,13 +34833,14 @@
         <v>747</v>
       </c>
       <c r="Q514" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R514" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="515" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S514"/>
+    </row>
+    <row r="515" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="5">
         <v>2</v>
       </c>
@@ -34791,13 +34884,14 @@
         <v>749</v>
       </c>
       <c r="Q515" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R515" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="516" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S515"/>
+    </row>
+    <row r="516" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="5">
         <v>2</v>
       </c>
@@ -34841,13 +34935,14 @@
         <v>750</v>
       </c>
       <c r="Q516" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R516" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="517" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S516"/>
+    </row>
+    <row r="517" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="5">
         <v>2</v>
       </c>
@@ -34891,13 +34986,14 @@
         <v>751</v>
       </c>
       <c r="Q517" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R517" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="518" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S517"/>
+    </row>
+    <row r="518" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="5">
         <v>2</v>
       </c>
@@ -34941,13 +35037,14 @@
         <v>752</v>
       </c>
       <c r="Q518" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R518" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="519" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S518"/>
+    </row>
+    <row r="519" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5">
         <v>2</v>
       </c>
@@ -34991,13 +35088,14 @@
         <v>753</v>
       </c>
       <c r="Q519" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R519" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="520" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S519"/>
+    </row>
+    <row r="520" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="5">
         <v>2</v>
       </c>
@@ -35041,13 +35139,14 @@
         <v>754</v>
       </c>
       <c r="Q520" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R520" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="521" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S520"/>
+    </row>
+    <row r="521" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5">
         <v>2</v>
       </c>
@@ -35091,13 +35190,14 @@
         <v>755</v>
       </c>
       <c r="Q521" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R521" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="522" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S521"/>
+    </row>
+    <row r="522" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5">
         <v>2</v>
       </c>
@@ -35141,13 +35241,14 @@
         <v>757</v>
       </c>
       <c r="Q522" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R522" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="523" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S522"/>
+    </row>
+    <row r="523" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5">
         <v>2</v>
       </c>
@@ -35191,13 +35292,14 @@
         <v>758</v>
       </c>
       <c r="Q523" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R523" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="524" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S523"/>
+    </row>
+    <row r="524" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="5">
         <v>2</v>
       </c>
@@ -35241,13 +35343,14 @@
         <v>759</v>
       </c>
       <c r="Q524" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R524" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="525" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S524"/>
+    </row>
+    <row r="525" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5">
         <v>2</v>
       </c>
@@ -35291,13 +35394,14 @@
         <v>760</v>
       </c>
       <c r="Q525" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R525" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="526" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S525"/>
+    </row>
+    <row r="526" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5">
         <v>2</v>
       </c>
@@ -35341,13 +35445,14 @@
         <v>761</v>
       </c>
       <c r="Q526" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R526" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="527" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S526"/>
+    </row>
+    <row r="527" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5">
         <v>2</v>
       </c>
@@ -35391,13 +35496,14 @@
         <v>762</v>
       </c>
       <c r="Q527" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R527" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="528" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S527"/>
+    </row>
+    <row r="528" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5">
         <v>2</v>
       </c>
@@ -35441,13 +35547,14 @@
         <v>763</v>
       </c>
       <c r="Q528" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R528" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="529" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S528"/>
+    </row>
+    <row r="529" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5">
         <v>2</v>
       </c>
@@ -35491,13 +35598,14 @@
         <v>765</v>
       </c>
       <c r="Q529" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R529" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="530" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S529"/>
+    </row>
+    <row r="530" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="5">
         <v>2</v>
       </c>
@@ -35541,13 +35649,14 @@
         <v>766</v>
       </c>
       <c r="Q530" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R530" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="531" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S530"/>
+    </row>
+    <row r="531" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="5">
         <v>2</v>
       </c>
@@ -35591,13 +35700,14 @@
         <v>767</v>
       </c>
       <c r="Q531" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R531" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="532" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S531"/>
+    </row>
+    <row r="532" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="5">
         <v>2</v>
       </c>
@@ -35641,13 +35751,14 @@
         <v>768</v>
       </c>
       <c r="Q532" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R532" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="533" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S532"/>
+    </row>
+    <row r="533" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5">
         <v>2</v>
       </c>
@@ -35691,13 +35802,14 @@
         <v>769</v>
       </c>
       <c r="Q533" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R533" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="534" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S533"/>
+    </row>
+    <row r="534" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A534" s="5">
         <v>2</v>
       </c>
@@ -35741,13 +35853,14 @@
         <v>770</v>
       </c>
       <c r="Q534" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R534" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="535" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S534"/>
+    </row>
+    <row r="535" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5">
         <v>2</v>
       </c>
@@ -35791,13 +35904,14 @@
         <v>771</v>
       </c>
       <c r="Q535" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R535" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="536" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S535"/>
+    </row>
+    <row r="536" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="5">
         <v>2</v>
       </c>
@@ -35841,13 +35955,14 @@
         <v>772</v>
       </c>
       <c r="Q536" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R536" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="537" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S536"/>
+    </row>
+    <row r="537" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5">
         <v>2</v>
       </c>
@@ -35891,13 +36006,14 @@
         <v>773</v>
       </c>
       <c r="Q537" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R537" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="538" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S537"/>
+    </row>
+    <row r="538" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5">
         <v>2</v>
       </c>
@@ -35941,13 +36057,14 @@
         <v>774</v>
       </c>
       <c r="Q538" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R538" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="539" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S538"/>
+    </row>
+    <row r="539" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5">
         <v>2</v>
       </c>
@@ -35991,13 +36108,14 @@
         <v>775</v>
       </c>
       <c r="Q539" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R539" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="540" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S539"/>
+    </row>
+    <row r="540" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5">
         <v>2</v>
       </c>
@@ -36041,13 +36159,14 @@
         <v>776</v>
       </c>
       <c r="Q540" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R540" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="541" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S540"/>
+    </row>
+    <row r="541" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5">
         <v>2</v>
       </c>
@@ -36091,13 +36210,14 @@
         <v>777</v>
       </c>
       <c r="Q541" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R541" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="542" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S541"/>
+    </row>
+    <row r="542" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A542" s="5">
         <v>2</v>
       </c>
@@ -36141,13 +36261,14 @@
         <v>778</v>
       </c>
       <c r="Q542" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R542" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="543" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S542"/>
+    </row>
+    <row r="543" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5">
         <v>2</v>
       </c>
@@ -36191,13 +36312,14 @@
         <v>780</v>
       </c>
       <c r="Q543" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R543" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="544" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S543"/>
+    </row>
+    <row r="544" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A544" s="5">
         <v>2</v>
       </c>
@@ -36241,13 +36363,14 @@
         <v>781</v>
       </c>
       <c r="Q544" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R544" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="545" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S544"/>
+    </row>
+    <row r="545" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A545" s="5">
         <v>2</v>
       </c>
@@ -36291,13 +36414,14 @@
         <v>782</v>
       </c>
       <c r="Q545" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R545" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="546" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S545"/>
+    </row>
+    <row r="546" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A546" s="5">
         <v>2</v>
       </c>
@@ -36341,13 +36465,14 @@
         <v>783</v>
       </c>
       <c r="Q546" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R546" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="547" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S546"/>
+    </row>
+    <row r="547" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A547" s="5">
         <v>2</v>
       </c>
@@ -36391,13 +36516,14 @@
         <v>784</v>
       </c>
       <c r="Q547" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R547" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="548" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S547"/>
+    </row>
+    <row r="548" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A548" s="5">
         <v>2</v>
       </c>
@@ -36441,13 +36567,14 @@
         <v>785</v>
       </c>
       <c r="Q548" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R548" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="549" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S548"/>
+    </row>
+    <row r="549" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5">
         <v>2</v>
       </c>
@@ -36491,13 +36618,14 @@
         <v>775</v>
       </c>
       <c r="Q549" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R549" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="550" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S549"/>
+    </row>
+    <row r="550" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="5">
         <v>2</v>
       </c>
@@ -36541,13 +36669,14 @@
         <v>786</v>
       </c>
       <c r="Q550" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R550" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="551" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S550"/>
+    </row>
+    <row r="551" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="5">
         <v>2</v>
       </c>
@@ -36591,13 +36720,14 @@
         <v>787</v>
       </c>
       <c r="Q551" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R551" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="552" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S551"/>
+    </row>
+    <row r="552" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="5">
         <v>2</v>
       </c>
@@ -36641,13 +36771,14 @@
         <v>788</v>
       </c>
       <c r="Q552" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R552" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="553" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S552"/>
+    </row>
+    <row r="553" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="5">
         <v>2</v>
       </c>
@@ -36691,13 +36822,14 @@
         <v>789</v>
       </c>
       <c r="Q553" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R553" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="554" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S553"/>
+    </row>
+    <row r="554" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A554" s="5">
         <v>2</v>
       </c>
@@ -36741,13 +36873,14 @@
         <v>791</v>
       </c>
       <c r="Q554" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R554" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="555" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S554"/>
+    </row>
+    <row r="555" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5">
         <v>2</v>
       </c>
@@ -36791,13 +36924,14 @@
         <v>792</v>
       </c>
       <c r="Q555" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R555" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="556" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S555"/>
+    </row>
+    <row r="556" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A556" s="5">
         <v>2</v>
       </c>
@@ -36841,13 +36975,14 @@
         <v>793</v>
       </c>
       <c r="Q556" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R556" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="557" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S556"/>
+    </row>
+    <row r="557" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A557" s="5">
         <v>2</v>
       </c>
@@ -36891,13 +37026,14 @@
         <v>794</v>
       </c>
       <c r="Q557" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R557" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="558" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S557"/>
+    </row>
+    <row r="558" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A558" s="5">
         <v>2</v>
       </c>
@@ -36941,13 +37077,14 @@
         <v>795</v>
       </c>
       <c r="Q558" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R558" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="559" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S558"/>
+    </row>
+    <row r="559" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A559" s="5">
         <v>2</v>
       </c>
@@ -36991,13 +37128,14 @@
         <v>796</v>
       </c>
       <c r="Q559" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R559" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="560" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S559"/>
+    </row>
+    <row r="560" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A560" s="5">
         <v>2</v>
       </c>
@@ -37041,13 +37179,14 @@
         <v>797</v>
       </c>
       <c r="Q560" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R560" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="561" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S560"/>
+    </row>
+    <row r="561" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5">
         <v>2</v>
       </c>
@@ -37091,13 +37230,14 @@
         <v>798</v>
       </c>
       <c r="Q561" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R561" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="562" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S561"/>
+    </row>
+    <row r="562" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A562" s="5">
         <v>2</v>
       </c>
@@ -37141,13 +37281,14 @@
         <v>800</v>
       </c>
       <c r="Q562" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R562" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="563" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S562"/>
+    </row>
+    <row r="563" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5">
         <v>2</v>
       </c>
@@ -37191,13 +37332,14 @@
         <v>801</v>
       </c>
       <c r="Q563" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R563" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="564" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S563"/>
+    </row>
+    <row r="564" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A564" s="5">
         <v>2</v>
       </c>
@@ -37241,13 +37383,14 @@
         <v>802</v>
       </c>
       <c r="Q564" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R564" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="565" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S564"/>
+    </row>
+    <row r="565" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A565" s="5">
         <v>2</v>
       </c>
@@ -37291,13 +37434,14 @@
         <v>803</v>
       </c>
       <c r="Q565" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R565" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="566" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S565"/>
+    </row>
+    <row r="566" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A566" s="5">
         <v>2</v>
       </c>
@@ -37341,13 +37485,14 @@
         <v>804</v>
       </c>
       <c r="Q566" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R566" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="567" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S566"/>
+    </row>
+    <row r="567" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A567" s="5">
         <v>2</v>
       </c>
@@ -37391,13 +37536,14 @@
         <v>805</v>
       </c>
       <c r="Q567" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R567" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="568" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S567"/>
+    </row>
+    <row r="568" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A568" s="5">
         <v>2</v>
       </c>
@@ -37441,13 +37587,14 @@
         <v>806</v>
       </c>
       <c r="Q568" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R568" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="569" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S568"/>
+    </row>
+    <row r="569" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5">
         <v>2</v>
       </c>
@@ -37491,13 +37638,14 @@
         <v>809</v>
       </c>
       <c r="Q569" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R569" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="570" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S569"/>
+    </row>
+    <row r="570" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="5">
         <v>2</v>
       </c>
@@ -37541,13 +37689,14 @@
         <v>810</v>
       </c>
       <c r="Q570" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R570" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="571" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S570"/>
+    </row>
+    <row r="571" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="5">
         <v>2</v>
       </c>
@@ -37591,13 +37740,14 @@
         <v>811</v>
       </c>
       <c r="Q571" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R571" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="572" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S571"/>
+    </row>
+    <row r="572" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="5">
         <v>2</v>
       </c>
@@ -37641,13 +37791,14 @@
         <v>812</v>
       </c>
       <c r="Q572" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R572" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="573" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S572"/>
+    </row>
+    <row r="573" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
         <v>2</v>
       </c>
@@ -37691,13 +37842,14 @@
         <v>813</v>
       </c>
       <c r="Q573" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R573" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="574" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S573"/>
+    </row>
+    <row r="574" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="5">
         <v>2</v>
       </c>
@@ -37741,13 +37893,14 @@
         <v>814</v>
       </c>
       <c r="Q574" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R574" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="575" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S574"/>
+    </row>
+    <row r="575" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A575" s="5">
         <v>2</v>
       </c>
@@ -37791,13 +37944,14 @@
         <v>815</v>
       </c>
       <c r="Q575" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R575" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="576" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S575"/>
+    </row>
+    <row r="576" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A576" s="5">
         <v>2</v>
       </c>
@@ -37841,13 +37995,14 @@
         <v>810</v>
       </c>
       <c r="Q576" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R576" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="577" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S576"/>
+    </row>
+    <row r="577" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A577" s="5">
         <v>2</v>
       </c>
@@ -37891,13 +38046,14 @@
         <v>817</v>
       </c>
       <c r="Q577" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R577" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="578" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S577"/>
+    </row>
+    <row r="578" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A578" s="5">
         <v>2</v>
       </c>
@@ -37941,13 +38097,14 @@
         <v>818</v>
       </c>
       <c r="Q578" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R578" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="579" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S578"/>
+    </row>
+    <row r="579" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A579" s="5">
         <v>2</v>
       </c>
@@ -37991,13 +38148,14 @@
         <v>820</v>
       </c>
       <c r="Q579" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R579" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="580" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S579"/>
+    </row>
+    <row r="580" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A580" s="5">
         <v>2</v>
       </c>
@@ -38041,13 +38199,14 @@
         <v>821</v>
       </c>
       <c r="Q580" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R580" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="581" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S580"/>
+    </row>
+    <row r="581" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A581" s="5">
         <v>2</v>
       </c>
@@ -38091,13 +38250,14 @@
         <v>822</v>
       </c>
       <c r="Q581" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R581" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="582" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S581"/>
+    </row>
+    <row r="582" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A582" s="5">
         <v>2</v>
       </c>
@@ -38141,13 +38301,14 @@
         <v>823</v>
       </c>
       <c r="Q582" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R582" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="583" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S582"/>
+    </row>
+    <row r="583" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A583" s="5">
         <v>2</v>
       </c>
@@ -38191,13 +38352,14 @@
         <v>824</v>
       </c>
       <c r="Q583" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R583" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="584" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S583"/>
+    </row>
+    <row r="584" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A584" s="5">
         <v>2</v>
       </c>
@@ -38241,13 +38403,14 @@
         <v>825</v>
       </c>
       <c r="Q584" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R584" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="585" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S584"/>
+    </row>
+    <row r="585" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A585" s="5">
         <v>2</v>
       </c>
@@ -38291,13 +38454,14 @@
         <v>827</v>
       </c>
       <c r="Q585" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R585" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="586" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S585"/>
+    </row>
+    <row r="586" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A586" s="5">
         <v>2</v>
       </c>
@@ -38341,13 +38505,14 @@
         <v>828</v>
       </c>
       <c r="Q586" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R586" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="587" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S586"/>
+    </row>
+    <row r="587" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A587" s="5">
         <v>2</v>
       </c>
@@ -38391,13 +38556,14 @@
         <v>830</v>
       </c>
       <c r="Q587" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R587" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="588" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S587"/>
+    </row>
+    <row r="588" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A588" s="5">
         <v>2</v>
       </c>
@@ -38441,13 +38607,14 @@
         <v>831</v>
       </c>
       <c r="Q588" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R588" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="589" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S588"/>
+    </row>
+    <row r="589" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A589" s="5">
         <v>2</v>
       </c>
@@ -38491,13 +38658,14 @@
         <v>832</v>
       </c>
       <c r="Q589" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R589" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="590" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S589"/>
+    </row>
+    <row r="590" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A590" s="5">
         <v>2</v>
       </c>
@@ -38541,13 +38709,14 @@
         <v>833</v>
       </c>
       <c r="Q590" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R590" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="591" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S590"/>
+    </row>
+    <row r="591" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A591" s="5">
         <v>2</v>
       </c>
@@ -38591,13 +38760,14 @@
         <v>834</v>
       </c>
       <c r="Q591" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R591" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="592" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S591"/>
+    </row>
+    <row r="592" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A592" s="5">
         <v>2</v>
       </c>
@@ -38641,13 +38811,14 @@
         <v>837</v>
       </c>
       <c r="Q592" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R592" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="593" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S592"/>
+    </row>
+    <row r="593" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5">
         <v>2</v>
       </c>
@@ -38691,13 +38862,14 @@
         <v>839</v>
       </c>
       <c r="Q593" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R593" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="594" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S593"/>
+    </row>
+    <row r="594" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A594" s="5">
         <v>2</v>
       </c>
@@ -38741,13 +38913,14 @@
         <v>841</v>
       </c>
       <c r="Q594" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R594" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="595" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S594"/>
+    </row>
+    <row r="595" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A595" s="5">
         <v>2</v>
       </c>
@@ -38791,13 +38964,14 @@
         <v>842</v>
       </c>
       <c r="Q595" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R595" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="596" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S595"/>
+    </row>
+    <row r="596" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A596" s="5">
         <v>2</v>
       </c>
@@ -38841,13 +39015,14 @@
         <v>844</v>
       </c>
       <c r="Q596" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R596" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="597" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S596"/>
+    </row>
+    <row r="597" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="5">
         <v>2</v>
       </c>
@@ -38891,13 +39066,14 @@
         <v>846</v>
       </c>
       <c r="Q597" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R597" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="598" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S597"/>
+    </row>
+    <row r="598" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="5">
         <v>2</v>
       </c>
@@ -38941,13 +39117,14 @@
         <v>848</v>
       </c>
       <c r="Q598" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R598" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="599" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S598"/>
+    </row>
+    <row r="599" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A599" s="5">
         <v>2</v>
       </c>
@@ -38991,13 +39168,14 @@
         <v>850</v>
       </c>
       <c r="Q599" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R599" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="600" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S599"/>
+    </row>
+    <row r="600" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A600" s="5">
         <v>2</v>
       </c>
@@ -39041,13 +39219,14 @@
         <v>852</v>
       </c>
       <c r="Q600" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R600" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="601" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S600"/>
+    </row>
+    <row r="601" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A601" s="5">
         <v>2</v>
       </c>
@@ -39091,13 +39270,14 @@
         <v>853</v>
       </c>
       <c r="Q601" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R601" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="602" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S601"/>
+    </row>
+    <row r="602" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A602" s="5">
         <v>2</v>
       </c>
@@ -39141,13 +39321,14 @@
         <v>856</v>
       </c>
       <c r="Q602" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R602" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="603" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S602"/>
+    </row>
+    <row r="603" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A603" s="5">
         <v>2</v>
       </c>
@@ -39191,13 +39372,14 @@
         <v>858</v>
       </c>
       <c r="Q603" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R603" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="604" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S603"/>
+    </row>
+    <row r="604" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A604" s="5">
         <v>2</v>
       </c>
@@ -39241,13 +39423,14 @@
         <v>859</v>
       </c>
       <c r="Q604" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R604" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="605" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S604"/>
+    </row>
+    <row r="605" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A605" s="5">
         <v>2</v>
       </c>
@@ -39291,13 +39474,14 @@
         <v>860</v>
       </c>
       <c r="Q605" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R605" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="606" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S605"/>
+    </row>
+    <row r="606" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A606" s="5">
         <v>2</v>
       </c>
@@ -39341,13 +39525,14 @@
         <v>861</v>
       </c>
       <c r="Q606" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R606" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="607" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S606"/>
+    </row>
+    <row r="607" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A607" s="5">
         <v>2</v>
       </c>
@@ -39391,13 +39576,14 @@
         <v>862</v>
       </c>
       <c r="Q607" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R607" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="608" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S607"/>
+    </row>
+    <row r="608" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A608" s="5">
         <v>2</v>
       </c>
@@ -39441,13 +39627,14 @@
         <v>864</v>
       </c>
       <c r="Q608" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R608" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="609" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S608"/>
+    </row>
+    <row r="609" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="5">
         <v>2</v>
       </c>
@@ -39491,13 +39678,14 @@
         <v>865</v>
       </c>
       <c r="Q609" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R609" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="610" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S609"/>
+    </row>
+    <row r="610" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="5">
         <v>2</v>
       </c>
@@ -39541,13 +39729,14 @@
         <v>866</v>
       </c>
       <c r="Q610" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R610" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="611" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S610"/>
+    </row>
+    <row r="611" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A611" s="5">
         <v>2</v>
       </c>
@@ -39591,13 +39780,14 @@
         <v>869</v>
       </c>
       <c r="Q611" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R611" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="612" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S611"/>
+    </row>
+    <row r="612" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A612" s="5">
         <v>2</v>
       </c>
@@ -39641,13 +39831,14 @@
         <v>870</v>
       </c>
       <c r="Q612" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R612" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="613" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S612"/>
+    </row>
+    <row r="613" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A613" s="5">
         <v>2</v>
       </c>
@@ -39691,13 +39882,14 @@
         <v>872</v>
       </c>
       <c r="Q613" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R613" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="614" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S613"/>
+    </row>
+    <row r="614" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A614" s="5">
         <v>2</v>
       </c>
@@ -39741,13 +39933,14 @@
         <v>873</v>
       </c>
       <c r="Q614" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R614" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="615" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S614"/>
+    </row>
+    <row r="615" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A615" s="5">
         <v>2</v>
       </c>
@@ -39791,13 +39984,14 @@
         <v>874</v>
       </c>
       <c r="Q615" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R615" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="616" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S615"/>
+    </row>
+    <row r="616" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A616" s="5">
         <v>2</v>
       </c>
@@ -39841,13 +40035,14 @@
         <v>875</v>
       </c>
       <c r="Q616" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R616" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="617" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S616"/>
+    </row>
+    <row r="617" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A617" s="5">
         <v>2</v>
       </c>
@@ -39891,13 +40086,14 @@
         <v>876</v>
       </c>
       <c r="Q617" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R617" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="618" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S617"/>
+    </row>
+    <row r="618" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A618" s="5">
         <v>2</v>
       </c>
@@ -39941,13 +40137,14 @@
         <v>877</v>
       </c>
       <c r="Q618" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R618" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="619" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S618"/>
+    </row>
+    <row r="619" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A619" s="5">
         <v>2</v>
       </c>
@@ -39991,13 +40188,14 @@
         <v>878</v>
       </c>
       <c r="Q619" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R619" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="620" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S619"/>
+    </row>
+    <row r="620" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A620" s="5">
         <v>2</v>
       </c>
@@ -40041,13 +40239,14 @@
         <v>879</v>
       </c>
       <c r="Q620" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R620" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="621" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S620"/>
+    </row>
+    <row r="621" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A621" s="5">
         <v>2</v>
       </c>
@@ -40091,13 +40290,14 @@
         <v>880</v>
       </c>
       <c r="Q621" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R621" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="622" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S621"/>
+    </row>
+    <row r="622" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A622" s="5">
         <v>2</v>
       </c>
@@ -40141,13 +40341,14 @@
         <v>881</v>
       </c>
       <c r="Q622" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R622" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="623" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S622"/>
+    </row>
+    <row r="623" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A623" s="5">
         <v>2</v>
       </c>
@@ -40191,13 +40392,14 @@
         <v>882</v>
       </c>
       <c r="Q623" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R623" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="624" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S623"/>
+    </row>
+    <row r="624" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A624" s="5">
         <v>2</v>
       </c>
@@ -40241,13 +40443,14 @@
         <v>883</v>
       </c>
       <c r="Q624" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R624" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="625" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S624"/>
+    </row>
+    <row r="625" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A625" s="5">
         <v>2</v>
       </c>
@@ -40291,13 +40494,14 @@
         <v>884</v>
       </c>
       <c r="Q625" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R625" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="626" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S625"/>
+    </row>
+    <row r="626" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A626" s="5">
         <v>2</v>
       </c>
@@ -40341,13 +40545,14 @@
         <v>885</v>
       </c>
       <c r="Q626" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R626" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="627" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S626"/>
+    </row>
+    <row r="627" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A627" s="5">
         <v>2</v>
       </c>
@@ -40391,13 +40596,14 @@
         <v>886</v>
       </c>
       <c r="Q627" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R627" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="628" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S627"/>
+    </row>
+    <row r="628" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A628" s="5">
         <v>2</v>
       </c>
@@ -40441,13 +40647,14 @@
         <v>887</v>
       </c>
       <c r="Q628" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R628" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="629" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S628"/>
+    </row>
+    <row r="629" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A629" s="5">
         <v>2</v>
       </c>
@@ -40491,13 +40698,14 @@
         <v>888</v>
       </c>
       <c r="Q629" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R629" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="630" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S629"/>
+    </row>
+    <row r="630" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A630" s="5">
         <v>2</v>
       </c>
@@ -40541,13 +40749,14 @@
         <v>889</v>
       </c>
       <c r="Q630" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R630" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="631" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S630"/>
+    </row>
+    <row r="631" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A631" s="5">
         <v>2</v>
       </c>
@@ -40591,13 +40800,14 @@
         <v>890</v>
       </c>
       <c r="Q631" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R631" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="632" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S631"/>
+    </row>
+    <row r="632" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A632" s="5">
         <v>2</v>
       </c>
@@ -40641,13 +40851,14 @@
         <v>891</v>
       </c>
       <c r="Q632" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R632" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="633" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S632"/>
+    </row>
+    <row r="633" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A633" s="5">
         <v>2</v>
       </c>
@@ -40691,13 +40902,14 @@
         <v>893</v>
       </c>
       <c r="Q633" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R633" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="634" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S633"/>
+    </row>
+    <row r="634" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A634" s="5">
         <v>2</v>
       </c>
@@ -40741,13 +40953,14 @@
         <v>894</v>
       </c>
       <c r="Q634" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R634" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="635" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S634"/>
+    </row>
+    <row r="635" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A635" s="5">
         <v>2</v>
       </c>
@@ -40791,13 +41004,14 @@
         <v>895</v>
       </c>
       <c r="Q635" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R635" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="636" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S635"/>
+    </row>
+    <row r="636" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A636" s="5">
         <v>2</v>
       </c>
@@ -40841,13 +41055,14 @@
         <v>897</v>
       </c>
       <c r="Q636" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R636" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="637" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S636"/>
+    </row>
+    <row r="637" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A637" s="5">
         <v>2</v>
       </c>
@@ -40891,13 +41106,14 @@
         <v>898</v>
       </c>
       <c r="Q637" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R637" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="638" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S637"/>
+    </row>
+    <row r="638" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A638" s="5">
         <v>2</v>
       </c>
@@ -40941,13 +41157,14 @@
         <v>899</v>
       </c>
       <c r="Q638" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R638" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="639" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S638"/>
+    </row>
+    <row r="639" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5">
         <v>2</v>
       </c>
@@ -40991,13 +41208,14 @@
         <v>900</v>
       </c>
       <c r="Q639" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R639" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="640" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S639"/>
+    </row>
+    <row r="640" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A640" s="5">
         <v>2</v>
       </c>
@@ -41041,13 +41259,14 @@
         <v>901</v>
       </c>
       <c r="Q640" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R640" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="641" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S640"/>
+    </row>
+    <row r="641" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A641" s="5">
         <v>2</v>
       </c>
@@ -41091,13 +41310,14 @@
         <v>902</v>
       </c>
       <c r="Q641" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R641" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="642" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S641"/>
+    </row>
+    <row r="642" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A642" s="5">
         <v>2</v>
       </c>
@@ -41141,13 +41361,14 @@
         <v>903</v>
       </c>
       <c r="Q642" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R642" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="643" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S642"/>
+    </row>
+    <row r="643" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A643" s="5">
         <v>2</v>
       </c>
@@ -41191,13 +41412,14 @@
         <v>904</v>
       </c>
       <c r="Q643" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R643" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="644" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S643"/>
+    </row>
+    <row r="644" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A644" s="5">
         <v>2</v>
       </c>
@@ -41241,13 +41463,14 @@
         <v>905</v>
       </c>
       <c r="Q644" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R644" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="645" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S644"/>
+    </row>
+    <row r="645" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A645" s="5">
         <v>2</v>
       </c>
@@ -41291,13 +41514,14 @@
         <v>906</v>
       </c>
       <c r="Q645" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R645" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="646" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S645"/>
+    </row>
+    <row r="646" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A646" s="5">
         <v>2</v>
       </c>
@@ -41341,13 +41565,14 @@
         <v>907</v>
       </c>
       <c r="Q646" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R646" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="647" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S646"/>
+    </row>
+    <row r="647" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A647" s="5">
         <v>2</v>
       </c>
@@ -41391,13 +41616,14 @@
         <v>908</v>
       </c>
       <c r="Q647" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R647" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="648" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S647"/>
+    </row>
+    <row r="648" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A648" s="5">
         <v>2</v>
       </c>
@@ -41441,13 +41667,14 @@
         <v>909</v>
       </c>
       <c r="Q648" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R648" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="649" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S648"/>
+    </row>
+    <row r="649" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A649" s="5">
         <v>2</v>
       </c>
@@ -41491,13 +41718,14 @@
         <v>910</v>
       </c>
       <c r="Q649" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R649" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="650" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S649"/>
+    </row>
+    <row r="650" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A650" s="5">
         <v>2</v>
       </c>
@@ -41541,13 +41769,14 @@
         <v>911</v>
       </c>
       <c r="Q650" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R650" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="651" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S650"/>
+    </row>
+    <row r="651" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A651" s="5">
         <v>2</v>
       </c>
@@ -41591,13 +41820,14 @@
         <v>913</v>
       </c>
       <c r="Q651" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R651" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="652" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S651"/>
+    </row>
+    <row r="652" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A652" s="5">
         <v>2</v>
       </c>
@@ -41641,13 +41871,14 @@
         <v>914</v>
       </c>
       <c r="Q652" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R652" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="653" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S652"/>
+    </row>
+    <row r="653" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A653" s="5">
         <v>2</v>
       </c>
@@ -41691,13 +41922,14 @@
         <v>915</v>
       </c>
       <c r="Q653" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R653" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="654" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S653"/>
+    </row>
+    <row r="654" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A654" s="5">
         <v>2</v>
       </c>
@@ -41741,13 +41973,14 @@
         <v>916</v>
       </c>
       <c r="Q654" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R654" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="655" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S654"/>
+    </row>
+    <row r="655" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A655" s="5">
         <v>2</v>
       </c>
@@ -41791,13 +42024,14 @@
         <v>917</v>
       </c>
       <c r="Q655" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R655" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="656" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S655"/>
+    </row>
+    <row r="656" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A656" s="5">
         <v>2</v>
       </c>
@@ -41841,13 +42075,14 @@
         <v>918</v>
       </c>
       <c r="Q656" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R656" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="657" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S656"/>
+    </row>
+    <row r="657" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A657" s="5">
         <v>2</v>
       </c>
@@ -41891,13 +42126,14 @@
         <v>919</v>
       </c>
       <c r="Q657" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R657" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="658" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S657"/>
+    </row>
+    <row r="658" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A658" s="5">
         <v>2</v>
       </c>
@@ -41941,13 +42177,14 @@
         <v>920</v>
       </c>
       <c r="Q658" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R658" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="659" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S658"/>
+    </row>
+    <row r="659" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A659" s="5">
         <v>2</v>
       </c>
@@ -41991,13 +42228,14 @@
         <v>921</v>
       </c>
       <c r="Q659" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R659" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="660" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S659"/>
+    </row>
+    <row r="660" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A660" s="5">
         <v>2</v>
       </c>
@@ -42041,13 +42279,14 @@
         <v>922</v>
       </c>
       <c r="Q660" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R660" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="661" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S660"/>
+    </row>
+    <row r="661" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A661" s="5">
         <v>2</v>
       </c>
@@ -42091,13 +42330,14 @@
         <v>923</v>
       </c>
       <c r="Q661" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R661" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="662" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S661"/>
+    </row>
+    <row r="662" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A662" s="5">
         <v>2</v>
       </c>
@@ -42141,13 +42381,14 @@
         <v>924</v>
       </c>
       <c r="Q662" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R662" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="663" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S662"/>
+    </row>
+    <row r="663" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A663" s="5">
         <v>2</v>
       </c>
@@ -42191,13 +42432,14 @@
         <v>926</v>
       </c>
       <c r="Q663" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R663" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="664" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S663"/>
+    </row>
+    <row r="664" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A664" s="5">
         <v>2</v>
       </c>
@@ -42241,13 +42483,14 @@
         <v>927</v>
       </c>
       <c r="Q664" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R664" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="665" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S664"/>
+    </row>
+    <row r="665" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A665" s="5">
         <v>2</v>
       </c>
@@ -42291,13 +42534,14 @@
         <v>928</v>
       </c>
       <c r="Q665" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R665" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="666" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S665"/>
+    </row>
+    <row r="666" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A666" s="5">
         <v>2</v>
       </c>
@@ -42341,13 +42585,14 @@
         <v>929</v>
       </c>
       <c r="Q666" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R666" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="667" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S666"/>
+    </row>
+    <row r="667" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A667" s="5">
         <v>2</v>
       </c>
@@ -42391,13 +42636,14 @@
         <v>931</v>
       </c>
       <c r="Q667" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R667" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="668" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S667"/>
+    </row>
+    <row r="668" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A668" s="5">
         <v>2</v>
       </c>
@@ -42441,13 +42687,14 @@
         <v>932</v>
       </c>
       <c r="Q668" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R668" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="669" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S668"/>
+    </row>
+    <row r="669" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A669" s="5">
         <v>2</v>
       </c>
@@ -42491,13 +42738,14 @@
         <v>933</v>
       </c>
       <c r="Q669" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R669" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="670" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S669"/>
+    </row>
+    <row r="670" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A670" s="5">
         <v>2</v>
       </c>
@@ -42541,13 +42789,14 @@
         <v>934</v>
       </c>
       <c r="Q670" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R670" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="671" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S670"/>
+    </row>
+    <row r="671" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A671" s="5">
         <v>2</v>
       </c>
@@ -42591,13 +42840,14 @@
         <v>935</v>
       </c>
       <c r="Q671" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R671" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="672" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S671"/>
+    </row>
+    <row r="672" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A672" s="5">
         <v>2</v>
       </c>
@@ -42641,13 +42891,14 @@
         <v>936</v>
       </c>
       <c r="Q672" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R672" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="673" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S672"/>
+    </row>
+    <row r="673" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A673" s="5">
         <v>2</v>
       </c>
@@ -42691,13 +42942,14 @@
         <v>939</v>
       </c>
       <c r="Q673" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R673" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="674" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S673"/>
+    </row>
+    <row r="674" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A674" s="5">
         <v>2</v>
       </c>
@@ -42741,13 +42993,14 @@
         <v>940</v>
       </c>
       <c r="Q674" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R674" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="675" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S674"/>
+    </row>
+    <row r="675" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A675" s="5">
         <v>2</v>
       </c>
@@ -42791,13 +43044,14 @@
         <v>941</v>
       </c>
       <c r="Q675" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R675" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="676" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S675"/>
+    </row>
+    <row r="676" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A676" s="5">
         <v>2</v>
       </c>
@@ -42841,13 +43095,14 @@
         <v>942</v>
       </c>
       <c r="Q676" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R676" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="677" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S676"/>
+    </row>
+    <row r="677" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A677" s="5">
         <v>2</v>
       </c>
@@ -42891,13 +43146,14 @@
         <v>943</v>
       </c>
       <c r="Q677" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R677" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="678" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S677"/>
+    </row>
+    <row r="678" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A678" s="5">
         <v>2</v>
       </c>
@@ -42941,13 +43197,14 @@
         <v>944</v>
       </c>
       <c r="Q678" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R678" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="679" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S678"/>
+    </row>
+    <row r="679" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A679" s="5">
         <v>2</v>
       </c>
@@ -42991,13 +43248,14 @@
         <v>945</v>
       </c>
       <c r="Q679" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R679" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="680" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S679"/>
+    </row>
+    <row r="680" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A680" s="5">
         <v>2</v>
       </c>
@@ -43041,13 +43299,14 @@
         <v>946</v>
       </c>
       <c r="Q680" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R680" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="681" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S680"/>
+    </row>
+    <row r="681" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A681" s="5">
         <v>2</v>
       </c>
@@ -43091,13 +43350,14 @@
         <v>948</v>
       </c>
       <c r="Q681" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R681" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="682" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S681"/>
+    </row>
+    <row r="682" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A682" s="5">
         <v>2</v>
       </c>
@@ -43141,13 +43401,14 @@
         <v>949</v>
       </c>
       <c r="Q682" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R682" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="683" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S682"/>
+    </row>
+    <row r="683" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A683" s="5">
         <v>2</v>
       </c>
@@ -43191,13 +43452,14 @@
         <v>950</v>
       </c>
       <c r="Q683" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R683" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="684" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S683"/>
+    </row>
+    <row r="684" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A684" s="5">
         <v>2</v>
       </c>
@@ -43241,13 +43503,14 @@
         <v>951</v>
       </c>
       <c r="Q684" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R684" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="685" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S684"/>
+    </row>
+    <row r="685" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A685" s="5">
         <v>2</v>
       </c>
@@ -43291,13 +43554,14 @@
         <v>954</v>
       </c>
       <c r="Q685" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R685" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="686" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S685"/>
+    </row>
+    <row r="686" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A686" s="5">
         <v>2</v>
       </c>
@@ -43341,13 +43605,14 @@
         <v>955</v>
       </c>
       <c r="Q686" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R686" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="687" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S686"/>
+    </row>
+    <row r="687" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A687" s="5">
         <v>2</v>
       </c>
@@ -43391,13 +43656,14 @@
         <v>956</v>
       </c>
       <c r="Q687" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R687" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="688" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S687"/>
+    </row>
+    <row r="688" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A688" s="5">
         <v>2</v>
       </c>
@@ -43441,13 +43707,14 @@
         <v>957</v>
       </c>
       <c r="Q688" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R688" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="689" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S688"/>
+    </row>
+    <row r="689" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A689" s="5">
         <v>2</v>
       </c>
@@ -43491,13 +43758,14 @@
         <v>958</v>
       </c>
       <c r="Q689" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R689" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="690" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S689"/>
+    </row>
+    <row r="690" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A690" s="5">
         <v>2</v>
       </c>
@@ -43541,13 +43809,14 @@
         <v>959</v>
       </c>
       <c r="Q690" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R690" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="691" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S690"/>
+    </row>
+    <row r="691" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A691" s="5">
         <v>2</v>
       </c>
@@ -43591,13 +43860,14 @@
         <v>960</v>
       </c>
       <c r="Q691" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R691" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="692" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S691"/>
+    </row>
+    <row r="692" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A692" s="5">
         <v>2</v>
       </c>
@@ -43641,13 +43911,14 @@
         <v>961</v>
       </c>
       <c r="Q692" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R692" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="693" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S692"/>
+    </row>
+    <row r="693" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A693" s="5">
         <v>2</v>
       </c>
@@ -43691,13 +43962,14 @@
         <v>963</v>
       </c>
       <c r="Q693" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R693" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="694" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S693"/>
+    </row>
+    <row r="694" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A694" s="5">
         <v>2</v>
       </c>
@@ -43741,13 +44013,14 @@
         <v>964</v>
       </c>
       <c r="Q694" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R694" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="695" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S694"/>
+    </row>
+    <row r="695" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A695" s="5">
         <v>2</v>
       </c>
@@ -43791,13 +44064,14 @@
         <v>965</v>
       </c>
       <c r="Q695" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R695" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="696" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S695"/>
+    </row>
+    <row r="696" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A696" s="5">
         <v>2</v>
       </c>
@@ -43841,13 +44115,14 @@
         <v>966</v>
       </c>
       <c r="Q696" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R696" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="697" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S696"/>
+    </row>
+    <row r="697" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A697" s="5">
         <v>2</v>
       </c>
@@ -43891,13 +44166,14 @@
         <v>967</v>
       </c>
       <c r="Q697" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R697" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="698" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S697"/>
+    </row>
+    <row r="698" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A698" s="5">
         <v>2</v>
       </c>
@@ -43941,13 +44217,14 @@
         <v>968</v>
       </c>
       <c r="Q698" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R698" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="699" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S698"/>
+    </row>
+    <row r="699" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A699" s="5">
         <v>2</v>
       </c>
@@ -43991,13 +44268,14 @@
         <v>969</v>
       </c>
       <c r="Q699" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R699" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="700" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S699"/>
+    </row>
+    <row r="700" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A700" s="5">
         <v>2</v>
       </c>
@@ -44041,13 +44319,14 @@
         <v>970</v>
       </c>
       <c r="Q700" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R700" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="701" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S700"/>
+    </row>
+    <row r="701" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A701" s="5">
         <v>2</v>
       </c>
@@ -44091,13 +44370,14 @@
         <v>972</v>
       </c>
       <c r="Q701" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R701" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="702" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S701"/>
+    </row>
+    <row r="702" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A702" s="5">
         <v>2</v>
       </c>
@@ -44141,13 +44421,14 @@
         <v>973</v>
       </c>
       <c r="Q702" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R702" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="703" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S702"/>
+    </row>
+    <row r="703" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A703" s="5">
         <v>2</v>
       </c>
@@ -44191,13 +44472,14 @@
         <v>974</v>
       </c>
       <c r="Q703" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R703" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="704" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S703"/>
+    </row>
+    <row r="704" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A704" s="5">
         <v>2</v>
       </c>
@@ -44241,13 +44523,14 @@
         <v>975</v>
       </c>
       <c r="Q704" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R704" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="705" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S704"/>
+    </row>
+    <row r="705" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A705" s="5">
         <v>2</v>
       </c>
@@ -44291,13 +44574,14 @@
         <v>978</v>
       </c>
       <c r="Q705" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R705" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="706" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S705"/>
+    </row>
+    <row r="706" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A706" s="5">
         <v>2</v>
       </c>
@@ -44341,13 +44625,14 @@
         <v>979</v>
       </c>
       <c r="Q706" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R706" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="707" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S706"/>
+    </row>
+    <row r="707" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A707" s="5">
         <v>2</v>
       </c>
@@ -44391,13 +44676,14 @@
         <v>980</v>
       </c>
       <c r="Q707" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R707" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="708" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S707"/>
+    </row>
+    <row r="708" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A708" s="5">
         <v>2</v>
       </c>
@@ -44441,13 +44727,14 @@
         <v>981</v>
       </c>
       <c r="Q708" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R708" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="709" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S708"/>
+    </row>
+    <row r="709" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A709" s="5">
         <v>2</v>
       </c>
@@ -44491,13 +44778,14 @@
         <v>982</v>
       </c>
       <c r="Q709" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R709" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="710" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S709"/>
+    </row>
+    <row r="710" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A710" s="5">
         <v>2</v>
       </c>
@@ -44541,13 +44829,14 @@
         <v>984</v>
       </c>
       <c r="Q710" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R710" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="711" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S710"/>
+    </row>
+    <row r="711" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A711" s="5">
         <v>2</v>
       </c>
@@ -44591,13 +44880,14 @@
         <v>880</v>
       </c>
       <c r="Q711" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R711" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="712" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S711"/>
+    </row>
+    <row r="712" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A712" s="5">
         <v>2</v>
       </c>
@@ -44641,13 +44931,14 @@
         <v>985</v>
       </c>
       <c r="Q712" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R712" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="713" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S712"/>
+    </row>
+    <row r="713" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A713" s="5">
         <v>2</v>
       </c>
@@ -44691,13 +44982,14 @@
         <v>900</v>
       </c>
       <c r="Q713" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R713" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="714" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S713"/>
+    </row>
+    <row r="714" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A714" s="5">
         <v>2</v>
       </c>
@@ -44741,13 +45033,14 @@
         <v>986</v>
       </c>
       <c r="Q714" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R714" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="715" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S714"/>
+    </row>
+    <row r="715" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A715" s="5">
         <v>2</v>
       </c>
@@ -44791,13 +45084,14 @@
         <v>987</v>
       </c>
       <c r="Q715" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R715" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="716" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S715"/>
+    </row>
+    <row r="716" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A716" s="5">
         <v>2</v>
       </c>
@@ -44841,13 +45135,14 @@
         <v>988</v>
       </c>
       <c r="Q716" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R716" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="717" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S716"/>
+    </row>
+    <row r="717" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A717" s="5">
         <v>2</v>
       </c>
@@ -44891,13 +45186,14 @@
         <v>989</v>
       </c>
       <c r="Q717" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R717" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="718" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S717"/>
+    </row>
+    <row r="718" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A718" s="5">
         <v>2</v>
       </c>
@@ -44941,13 +45237,14 @@
         <v>990</v>
       </c>
       <c r="Q718" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R718" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="719" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S718"/>
+    </row>
+    <row r="719" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A719" s="5">
         <v>2</v>
       </c>
@@ -44991,13 +45288,14 @@
         <v>991</v>
       </c>
       <c r="Q719" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R719" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="720" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S719"/>
+    </row>
+    <row r="720" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A720" s="5">
         <v>2</v>
       </c>
@@ -45041,13 +45339,14 @@
         <v>992</v>
       </c>
       <c r="Q720" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R720" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="721" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S720"/>
+    </row>
+    <row r="721" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A721" s="5">
         <v>2</v>
       </c>
@@ -45091,13 +45390,14 @@
         <v>994</v>
       </c>
       <c r="Q721" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R721" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="722" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S721"/>
+    </row>
+    <row r="722" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A722" s="5">
         <v>2</v>
       </c>
@@ -45141,13 +45441,14 @@
         <v>996</v>
       </c>
       <c r="Q722" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R722" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="723" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S722"/>
+    </row>
+    <row r="723" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A723" s="5">
         <v>2</v>
       </c>
@@ -45191,13 +45492,14 @@
         <v>997</v>
       </c>
       <c r="Q723" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R723" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="724" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S723"/>
+    </row>
+    <row r="724" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A724" s="5">
         <v>2</v>
       </c>
@@ -45241,13 +45543,14 @@
         <v>998</v>
       </c>
       <c r="Q724" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R724" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="725" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S724"/>
+    </row>
+    <row r="725" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A725" s="5">
         <v>2</v>
       </c>
@@ -45291,13 +45594,14 @@
         <v>999</v>
       </c>
       <c r="Q725" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R725" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="726" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S725"/>
+    </row>
+    <row r="726" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A726" s="5">
         <v>2</v>
       </c>
@@ -45341,13 +45645,14 @@
         <v>1000</v>
       </c>
       <c r="Q726" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R726" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="727" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S726"/>
+    </row>
+    <row r="727" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A727" s="5">
         <v>2</v>
       </c>
@@ -45391,13 +45696,14 @@
         <v>1001</v>
       </c>
       <c r="Q727" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R727" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="728" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S727"/>
+    </row>
+    <row r="728" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A728" s="5">
         <v>2</v>
       </c>
@@ -45441,13 +45747,14 @@
         <v>1002</v>
       </c>
       <c r="Q728" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R728" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="729" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S728"/>
+    </row>
+    <row r="729" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A729" s="5">
         <v>2</v>
       </c>
@@ -45491,13 +45798,14 @@
         <v>1003</v>
       </c>
       <c r="Q729" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R729" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="730" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S729"/>
+    </row>
+    <row r="730" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A730" s="5">
         <v>2</v>
       </c>
@@ -45541,13 +45849,14 @@
         <v>1004</v>
       </c>
       <c r="Q730" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R730" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="731" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S730"/>
+    </row>
+    <row r="731" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A731" s="5">
         <v>2</v>
       </c>
@@ -45591,13 +45900,14 @@
         <v>1005</v>
       </c>
       <c r="Q731" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R731" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="732" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S731"/>
+    </row>
+    <row r="732" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A732" s="5">
         <v>2</v>
       </c>
@@ -45641,13 +45951,14 @@
         <v>1006</v>
       </c>
       <c r="Q732" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R732" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="733" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S732"/>
+    </row>
+    <row r="733" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A733" s="5">
         <v>2</v>
       </c>
@@ -45691,13 +46002,14 @@
         <v>1007</v>
       </c>
       <c r="Q733" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R733" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="734" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S733"/>
+    </row>
+    <row r="734" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A734" s="5">
         <v>2</v>
       </c>
@@ -45741,13 +46053,14 @@
         <v>1008</v>
       </c>
       <c r="Q734" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R734" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="735" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S734"/>
+    </row>
+    <row r="735" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A735" s="5">
         <v>2</v>
       </c>
@@ -45791,13 +46104,14 @@
         <v>1010</v>
       </c>
       <c r="Q735" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R735" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="736" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S735"/>
+    </row>
+    <row r="736" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A736" s="5">
         <v>2</v>
       </c>
@@ -45841,13 +46155,14 @@
         <v>1011</v>
       </c>
       <c r="Q736" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R736" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="737" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S736"/>
+    </row>
+    <row r="737" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A737" s="5">
         <v>2</v>
       </c>
@@ -45891,13 +46206,14 @@
         <v>1012</v>
       </c>
       <c r="Q737" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R737" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="738" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S737"/>
+    </row>
+    <row r="738" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A738" s="5">
         <v>2</v>
       </c>
@@ -45941,13 +46257,14 @@
         <v>1013</v>
       </c>
       <c r="Q738" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R738" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="739" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S738"/>
+    </row>
+    <row r="739" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A739" s="5">
         <v>2</v>
       </c>
@@ -45991,13 +46308,14 @@
         <v>1014</v>
       </c>
       <c r="Q739" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R739" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="740" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S739"/>
+    </row>
+    <row r="740" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A740" s="5">
         <v>2</v>
       </c>
@@ -46041,13 +46359,14 @@
         <v>1015</v>
       </c>
       <c r="Q740" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R740" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="741" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S740"/>
+    </row>
+    <row r="741" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A741" s="5">
         <v>2</v>
       </c>
@@ -46091,13 +46410,14 @@
         <v>1016</v>
       </c>
       <c r="Q741" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R741" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="742" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S741"/>
+    </row>
+    <row r="742" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A742" s="5">
         <v>2</v>
       </c>
@@ -46141,13 +46461,14 @@
         <v>1017</v>
       </c>
       <c r="Q742" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R742" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="743" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S742"/>
+    </row>
+    <row r="743" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A743" s="5">
         <v>2</v>
       </c>
@@ -46191,13 +46512,14 @@
         <v>1018</v>
       </c>
       <c r="Q743" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R743" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="744" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S743"/>
+    </row>
+    <row r="744" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A744" s="5">
         <v>2</v>
       </c>
@@ -46241,13 +46563,14 @@
         <v>1019</v>
       </c>
       <c r="Q744" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R744" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="745" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S744"/>
+    </row>
+    <row r="745" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A745" s="5">
         <v>2</v>
       </c>
@@ -46291,13 +46614,14 @@
         <v>1020</v>
       </c>
       <c r="Q745" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R745" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="746" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S745"/>
+    </row>
+    <row r="746" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A746" s="5">
         <v>2</v>
       </c>
@@ -46341,13 +46665,14 @@
         <v>1021</v>
       </c>
       <c r="Q746" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R746" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="747" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S746"/>
+    </row>
+    <row r="747" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A747" s="5">
         <v>2</v>
       </c>
@@ -46391,13 +46716,14 @@
         <v>1022</v>
       </c>
       <c r="Q747" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R747" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="748" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S747"/>
+    </row>
+    <row r="748" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A748" s="5">
         <v>2</v>
       </c>
@@ -46441,13 +46767,14 @@
         <v>1023</v>
       </c>
       <c r="Q748" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R748" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="749" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S748"/>
+    </row>
+    <row r="749" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A749" s="5">
         <v>2</v>
       </c>
@@ -46491,13 +46818,14 @@
         <v>1024</v>
       </c>
       <c r="Q749" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R749" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="750" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S749"/>
+    </row>
+    <row r="750" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A750" s="5">
         <v>2</v>
       </c>
@@ -46541,13 +46869,14 @@
         <v>1025</v>
       </c>
       <c r="Q750" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R750" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="751" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S750"/>
+    </row>
+    <row r="751" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A751" s="5">
         <v>2</v>
       </c>
@@ -46591,13 +46920,14 @@
         <v>1027</v>
       </c>
       <c r="Q751" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R751" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="752" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S751"/>
+    </row>
+    <row r="752" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A752" s="5">
         <v>2</v>
       </c>
@@ -46641,13 +46971,14 @@
         <v>1028</v>
       </c>
       <c r="Q752" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R752" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="753" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S752"/>
+    </row>
+    <row r="753" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A753" s="5">
         <v>2</v>
       </c>
@@ -46691,13 +47022,14 @@
         <v>1029</v>
       </c>
       <c r="Q753" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R753" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="754" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S753"/>
+    </row>
+    <row r="754" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A754" s="5">
         <v>2</v>
       </c>
@@ -46741,13 +47073,14 @@
         <v>1030</v>
       </c>
       <c r="Q754" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R754" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="755" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S754"/>
+    </row>
+    <row r="755" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A755" s="5">
         <v>2</v>
       </c>
@@ -46791,13 +47124,14 @@
         <v>1031</v>
       </c>
       <c r="Q755" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R755" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="756" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S755"/>
+    </row>
+    <row r="756" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A756" s="5">
         <v>2</v>
       </c>
@@ -46841,13 +47175,14 @@
         <v>1032</v>
       </c>
       <c r="Q756" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R756" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="757" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S756"/>
+    </row>
+    <row r="757" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A757" s="5">
         <v>2</v>
       </c>
@@ -46891,13 +47226,14 @@
         <v>1033</v>
       </c>
       <c r="Q757" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R757" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="758" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S757"/>
+    </row>
+    <row r="758" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A758" s="5">
         <v>2</v>
       </c>
@@ -46941,13 +47277,14 @@
         <v>1034</v>
       </c>
       <c r="Q758" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R758" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="759" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S758"/>
+    </row>
+    <row r="759" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A759" s="5">
         <v>2</v>
       </c>
@@ -46991,13 +47328,14 @@
         <v>1035</v>
       </c>
       <c r="Q759" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R759" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="760" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S759"/>
+    </row>
+    <row r="760" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A760" s="5">
         <v>2</v>
       </c>
@@ -47041,13 +47379,14 @@
         <v>1036</v>
       </c>
       <c r="Q760" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R760" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="761" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S760"/>
+    </row>
+    <row r="761" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A761" s="5">
         <v>2</v>
       </c>
@@ -47091,13 +47430,14 @@
         <v>1037</v>
       </c>
       <c r="Q761" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R761" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="762" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S761"/>
+    </row>
+    <row r="762" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A762" s="5">
         <v>2</v>
       </c>
@@ -47141,13 +47481,14 @@
         <v>1038</v>
       </c>
       <c r="Q762" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R762" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="763" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S762"/>
+    </row>
+    <row r="763" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A763" s="5">
         <v>2</v>
       </c>
@@ -47179,13 +47520,14 @@
         <v>1050</v>
       </c>
       <c r="Q763" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R763" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="764" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S763"/>
+    </row>
+    <row r="764" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A764" s="5">
         <v>2</v>
       </c>
@@ -47217,13 +47559,14 @@
         <v>1051</v>
       </c>
       <c r="Q764" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R764" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="765" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S764"/>
+    </row>
+    <row r="765" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A765" s="5">
         <v>2</v>
       </c>
@@ -47255,13 +47598,14 @@
         <v>1052</v>
       </c>
       <c r="Q765" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R765" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="766" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S765"/>
+    </row>
+    <row r="766" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A766" s="5">
         <v>2</v>
       </c>
@@ -47293,13 +47637,14 @@
         <v>1053</v>
       </c>
       <c r="Q766" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R766" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="767" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S766"/>
+    </row>
+    <row r="767" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A767" s="5">
         <v>2</v>
       </c>
@@ -47331,13 +47676,14 @@
         <v>1054</v>
       </c>
       <c r="Q767" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R767" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="768" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S767"/>
+    </row>
+    <row r="768" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A768" s="5">
         <v>2</v>
       </c>
@@ -47369,13 +47715,14 @@
         <v>1055</v>
       </c>
       <c r="Q768" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R768" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="769" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S768"/>
+    </row>
+    <row r="769" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A769" s="5">
         <v>2</v>
       </c>
@@ -47407,13 +47754,14 @@
         <v>1056</v>
       </c>
       <c r="Q769" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R769" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="770" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S769"/>
+    </row>
+    <row r="770" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A770" s="5">
         <v>2</v>
       </c>
@@ -47445,13 +47793,14 @@
         <v>1057</v>
       </c>
       <c r="Q770" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R770" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="771" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S770"/>
+    </row>
+    <row r="771" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A771" s="5">
         <v>2</v>
       </c>
@@ -47483,13 +47832,14 @@
         <v>1058</v>
       </c>
       <c r="Q771" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R771" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="772" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S771"/>
+    </row>
+    <row r="772" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A772" s="5">
         <v>2</v>
       </c>
@@ -47521,13 +47871,14 @@
         <v>1059</v>
       </c>
       <c r="Q772" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R772" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="773" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S772"/>
+    </row>
+    <row r="773" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A773" s="5">
         <v>2</v>
       </c>
@@ -47559,13 +47910,14 @@
         <v>1060</v>
       </c>
       <c r="Q773" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R773" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="774" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S773"/>
+    </row>
+    <row r="774" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A774" s="5">
         <v>2</v>
       </c>
@@ -47597,13 +47949,14 @@
         <v>1061</v>
       </c>
       <c r="Q774" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R774" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="775" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S774"/>
+    </row>
+    <row r="775" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A775" s="5">
         <v>2</v>
       </c>
@@ -47635,13 +47988,14 @@
         <v>1062</v>
       </c>
       <c r="Q775" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R775" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="776" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S775"/>
+    </row>
+    <row r="776" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A776" s="5">
         <v>2</v>
       </c>
@@ -47673,13 +48027,14 @@
         <v>1063</v>
       </c>
       <c r="Q776" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R776" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="777" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S776"/>
+    </row>
+    <row r="777" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A777" s="5">
         <v>2</v>
       </c>
@@ -47711,13 +48066,14 @@
         <v>1064</v>
       </c>
       <c r="Q777" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R777" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="778" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S777"/>
+    </row>
+    <row r="778" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A778" s="5">
         <v>2</v>
       </c>
@@ -47749,13 +48105,14 @@
         <v>1065</v>
       </c>
       <c r="Q778" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R778" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="779" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S778"/>
+    </row>
+    <row r="779" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A779" s="5">
         <v>2</v>
       </c>
@@ -47787,13 +48144,14 @@
         <v>1066</v>
       </c>
       <c r="Q779" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R779" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="780" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S779"/>
+    </row>
+    <row r="780" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A780" s="5">
         <v>2</v>
       </c>
@@ -47825,13 +48183,14 @@
         <v>1067</v>
       </c>
       <c r="Q780" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R780" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="781" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S780"/>
+    </row>
+    <row r="781" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A781" s="5">
         <v>2</v>
       </c>
@@ -47863,13 +48222,14 @@
         <v>1068</v>
       </c>
       <c r="Q781" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R781" s="5" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="782" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S781"/>
+    </row>
+    <row r="782" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A782" s="5">
         <v>2</v>
       </c>
@@ -47901,13 +48261,14 @@
         <v>1069</v>
       </c>
       <c r="Q782" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R782" s="5" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="783" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S782"/>
+    </row>
+    <row r="783" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A783" s="5">
         <v>2</v>
       </c>
@@ -47939,13 +48300,14 @@
         <v>1070</v>
       </c>
       <c r="Q783" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R783" s="5" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="784" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S783"/>
+    </row>
+    <row r="784" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A784" s="5">
         <v>2</v>
       </c>
@@ -47977,13 +48339,14 @@
         <v>1071</v>
       </c>
       <c r="Q784" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R784" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="785" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S784"/>
+    </row>
+    <row r="785" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A785" s="5">
         <v>2</v>
       </c>
@@ -48015,13 +48378,14 @@
         <v>1072</v>
       </c>
       <c r="Q785" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R785" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="786" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S785"/>
+    </row>
+    <row r="786" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A786" s="5">
         <v>2</v>
       </c>
@@ -48053,13 +48417,14 @@
         <v>1073</v>
       </c>
       <c r="Q786" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R786" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="787" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S786"/>
+    </row>
+    <row r="787" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A787" s="5">
         <v>2</v>
       </c>
@@ -48091,13 +48456,14 @@
         <v>1074</v>
       </c>
       <c r="Q787" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R787" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="788" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S787"/>
+    </row>
+    <row r="788" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A788" s="5">
         <v>2</v>
       </c>
@@ -48129,13 +48495,14 @@
         <v>1075</v>
       </c>
       <c r="Q788" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R788" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="789" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S788"/>
+    </row>
+    <row r="789" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A789" s="5">
         <v>2</v>
       </c>
@@ -48167,13 +48534,14 @@
         <v>1076</v>
       </c>
       <c r="Q789" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R789" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="790" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S789"/>
+    </row>
+    <row r="790" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A790" s="5">
         <v>2</v>
       </c>
@@ -48205,13 +48573,14 @@
         <v>1077</v>
       </c>
       <c r="Q790" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R790" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="791" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S790"/>
+    </row>
+    <row r="791" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A791" s="5">
         <v>2</v>
       </c>
@@ -48243,13 +48612,14 @@
         <v>1078</v>
       </c>
       <c r="Q791" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R791" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="792" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S791"/>
+    </row>
+    <row r="792" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A792" s="5">
         <v>2</v>
       </c>
@@ -48281,13 +48651,14 @@
         <v>1079</v>
       </c>
       <c r="Q792" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R792" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="793" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S792"/>
+    </row>
+    <row r="793" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A793" s="5">
         <v>2</v>
       </c>
@@ -48319,13 +48690,14 @@
         <v>1080</v>
       </c>
       <c r="Q793" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R793" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="794" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S793"/>
+    </row>
+    <row r="794" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A794" s="5">
         <v>2</v>
       </c>
@@ -48357,13 +48729,14 @@
         <v>1081</v>
       </c>
       <c r="Q794" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R794" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="795" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S794"/>
+    </row>
+    <row r="795" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A795" s="5">
         <v>2</v>
       </c>
@@ -48395,13 +48768,14 @@
         <v>1082</v>
       </c>
       <c r="Q795" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R795" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="796" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S795"/>
+    </row>
+    <row r="796" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A796" s="5">
         <v>2</v>
       </c>
@@ -48433,13 +48807,14 @@
         <v>1083</v>
       </c>
       <c r="Q796" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R796" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="797" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S796"/>
+    </row>
+    <row r="797" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A797" s="5">
         <v>2</v>
       </c>
@@ -48471,13 +48846,14 @@
         <v>1084</v>
       </c>
       <c r="Q797" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R797" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="798" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S797"/>
+    </row>
+    <row r="798" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A798" s="5">
         <v>2</v>
       </c>
@@ -48509,13 +48885,14 @@
         <v>1085</v>
       </c>
       <c r="Q798" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R798" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="799" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S798"/>
+    </row>
+    <row r="799" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A799" s="5">
         <v>2</v>
       </c>
@@ -48547,13 +48924,14 @@
         <v>1086</v>
       </c>
       <c r="Q799" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R799" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="800" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S799"/>
+    </row>
+    <row r="800" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A800" s="5">
         <v>2</v>
       </c>
@@ -48585,13 +48963,14 @@
         <v>1087</v>
       </c>
       <c r="Q800" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R800" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="801" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S800"/>
+    </row>
+    <row r="801" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A801" s="5">
         <v>2</v>
       </c>
@@ -48623,13 +49002,14 @@
         <v>1088</v>
       </c>
       <c r="Q801" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R801" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="802" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S801"/>
+    </row>
+    <row r="802" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A802" s="5">
         <v>2</v>
       </c>
@@ -48661,13 +49041,14 @@
         <v>1089</v>
       </c>
       <c r="Q802" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R802" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="803" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S802"/>
+    </row>
+    <row r="803" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A803" s="5">
         <v>2</v>
       </c>
@@ -48699,13 +49080,14 @@
         <v>1090</v>
       </c>
       <c r="Q803" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R803" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="804" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S803"/>
+    </row>
+    <row r="804" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A804" s="5">
         <v>2</v>
       </c>
@@ -48737,13 +49119,14 @@
         <v>1091</v>
       </c>
       <c r="Q804" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R804" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="805" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S804"/>
+    </row>
+    <row r="805" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A805" s="5">
         <v>2</v>
       </c>
@@ -48775,13 +49158,14 @@
         <v>1092</v>
       </c>
       <c r="Q805" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R805" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="806" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S805"/>
+    </row>
+    <row r="806" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A806" s="5">
         <v>2</v>
       </c>
@@ -48813,13 +49197,14 @@
         <v>1093</v>
       </c>
       <c r="Q806" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R806" s="5" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="807" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S806"/>
+    </row>
+    <row r="807" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A807" s="5">
         <v>2</v>
       </c>
@@ -48851,13 +49236,14 @@
         <v>1094</v>
       </c>
       <c r="Q807" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R807" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="808" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S807"/>
+    </row>
+    <row r="808" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A808" s="5">
         <v>2</v>
       </c>
@@ -48889,13 +49275,14 @@
         <v>1095</v>
       </c>
       <c r="Q808" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R808" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="809" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S808"/>
+    </row>
+    <row r="809" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A809" s="5">
         <v>2</v>
       </c>
@@ -48927,13 +49314,14 @@
         <v>1096</v>
       </c>
       <c r="Q809" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R809" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="810" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S809"/>
+    </row>
+    <row r="810" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A810" s="5">
         <v>2</v>
       </c>
@@ -48965,13 +49353,14 @@
         <v>1097</v>
       </c>
       <c r="Q810" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R810" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="811" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S810"/>
+    </row>
+    <row r="811" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A811" s="5">
         <v>2</v>
       </c>
@@ -49003,13 +49392,14 @@
         <v>1098</v>
       </c>
       <c r="Q811" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R811" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="812" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S811"/>
+    </row>
+    <row r="812" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A812" s="5">
         <v>2</v>
       </c>
@@ -49041,13 +49431,14 @@
         <v>1099</v>
       </c>
       <c r="Q812" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R812" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="813" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S812"/>
+    </row>
+    <row r="813" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A813" s="5">
         <v>2</v>
       </c>
@@ -49079,13 +49470,14 @@
         <v>1100</v>
       </c>
       <c r="Q813" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R813" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="814" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S813"/>
+    </row>
+    <row r="814" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A814" s="5">
         <v>2</v>
       </c>
@@ -49117,13 +49509,14 @@
         <v>1101</v>
       </c>
       <c r="Q814" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R814" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="815" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S814"/>
+    </row>
+    <row r="815" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A815" s="5">
         <v>2</v>
       </c>
@@ -49155,13 +49548,14 @@
         <v>1102</v>
       </c>
       <c r="Q815" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R815" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="816" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S815"/>
+    </row>
+    <row r="816" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A816" s="5">
         <v>2</v>
       </c>
@@ -49193,13 +49587,14 @@
         <v>1103</v>
       </c>
       <c r="Q816" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R816" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="817" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S816"/>
+    </row>
+    <row r="817" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A817" s="5">
         <v>2</v>
       </c>
@@ -49231,13 +49626,14 @@
         <v>1104</v>
       </c>
       <c r="Q817" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R817" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="818" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S817"/>
+    </row>
+    <row r="818" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A818" s="5">
         <v>2</v>
       </c>
@@ -49269,13 +49665,14 @@
         <v>1105</v>
       </c>
       <c r="Q818" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R818" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="819" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S818"/>
+    </row>
+    <row r="819" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A819" s="5">
         <v>2</v>
       </c>
@@ -49307,13 +49704,14 @@
         <v>1106</v>
       </c>
       <c r="Q819" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R819" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="820" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S819"/>
+    </row>
+    <row r="820" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A820" s="5">
         <v>2</v>
       </c>
@@ -49345,13 +49743,14 @@
         <v>1107</v>
       </c>
       <c r="Q820" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R820" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="821" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S820"/>
+    </row>
+    <row r="821" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A821" s="5">
         <v>2</v>
       </c>
@@ -49383,13 +49782,14 @@
         <v>1108</v>
       </c>
       <c r="Q821" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R821" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="822" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S821"/>
+    </row>
+    <row r="822" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A822" s="5">
         <v>2</v>
       </c>
@@ -49421,13 +49821,14 @@
         <v>1109</v>
       </c>
       <c r="Q822" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R822" s="5" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="823" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S822"/>
+    </row>
+    <row r="823" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A823" s="5">
         <v>2</v>
       </c>
@@ -49459,13 +49860,14 @@
         <v>1110</v>
       </c>
       <c r="Q823" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R823" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="824" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S823"/>
+    </row>
+    <row r="824" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A824" s="5">
         <v>2</v>
       </c>
@@ -49497,13 +49899,14 @@
         <v>1111</v>
       </c>
       <c r="Q824" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R824" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="825" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S824"/>
+    </row>
+    <row r="825" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A825" s="5">
         <v>2</v>
       </c>
@@ -49535,13 +49938,14 @@
         <v>1112</v>
       </c>
       <c r="Q825" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R825" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="826" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S825"/>
+    </row>
+    <row r="826" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A826" s="5">
         <v>2</v>
       </c>
@@ -49573,13 +49977,14 @@
         <v>1113</v>
       </c>
       <c r="Q826" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R826" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="827" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S826"/>
+    </row>
+    <row r="827" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A827" s="5">
         <v>2</v>
       </c>
@@ -49611,13 +50016,14 @@
         <v>1114</v>
       </c>
       <c r="Q827" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R827" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="828" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S827"/>
+    </row>
+    <row r="828" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A828" s="5">
         <v>2</v>
       </c>
@@ -49649,13 +50055,14 @@
         <v>1115</v>
       </c>
       <c r="Q828" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R828" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="829" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S828"/>
+    </row>
+    <row r="829" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A829" s="5">
         <v>2</v>
       </c>
@@ -49687,13 +50094,14 @@
         <v>1116</v>
       </c>
       <c r="Q829" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R829" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="830" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S829"/>
+    </row>
+    <row r="830" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A830" s="5">
         <v>2</v>
       </c>
@@ -49725,13 +50133,14 @@
         <v>1117</v>
       </c>
       <c r="Q830" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R830" s="5" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="831" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S830"/>
+    </row>
+    <row r="831" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A831" s="5">
         <v>2</v>
       </c>
@@ -49763,13 +50172,14 @@
         <v>1049</v>
       </c>
       <c r="Q831" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R831" s="5" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="832" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S831"/>
+    </row>
+    <row r="832" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A832" s="5">
         <v>2</v>
       </c>
@@ -49801,13 +50211,14 @@
         <v>1118</v>
       </c>
       <c r="Q832" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R832" s="5" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="833" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S832"/>
+    </row>
+    <row r="833" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A833" s="5">
         <v>2</v>
       </c>
@@ -49839,13 +50250,14 @@
         <v>1119</v>
       </c>
       <c r="Q833" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R833" s="5" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="834" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S833"/>
+    </row>
+    <row r="834" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A834" s="5">
         <v>2</v>
       </c>
@@ -49877,13 +50289,14 @@
         <v>1048</v>
       </c>
       <c r="Q834" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R834" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="835" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S834"/>
+    </row>
+    <row r="835" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A835" s="5">
         <v>2</v>
       </c>
@@ -49915,13 +50328,14 @@
         <v>1050</v>
       </c>
       <c r="Q835" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R835" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="836" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S835"/>
+    </row>
+    <row r="836" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A836" s="5">
         <v>2</v>
       </c>
@@ -49953,13 +50367,14 @@
         <v>1051</v>
       </c>
       <c r="Q836" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R836" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="837" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S836"/>
+    </row>
+    <row r="837" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A837" s="5">
         <v>2</v>
       </c>
@@ -49991,13 +50406,14 @@
         <v>1052</v>
       </c>
       <c r="Q837" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R837" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="838" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S837"/>
+    </row>
+    <row r="838" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A838" s="5">
         <v>2</v>
       </c>
@@ -50029,13 +50445,14 @@
         <v>1053</v>
       </c>
       <c r="Q838" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R838" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="839" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S838"/>
+    </row>
+    <row r="839" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A839" s="5">
         <v>2</v>
       </c>
@@ -50067,13 +50484,14 @@
         <v>1054</v>
       </c>
       <c r="Q839" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R839" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="840" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S839"/>
+    </row>
+    <row r="840" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A840" s="5">
         <v>2</v>
       </c>
@@ -50105,13 +50523,14 @@
         <v>1055</v>
       </c>
       <c r="Q840" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R840" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="841" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S840"/>
+    </row>
+    <row r="841" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A841" s="5">
         <v>2</v>
       </c>
@@ -50143,13 +50562,14 @@
         <v>1056</v>
       </c>
       <c r="Q841" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R841" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="842" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S841"/>
+    </row>
+    <row r="842" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A842" s="5">
         <v>2</v>
       </c>
@@ -50181,13 +50601,14 @@
         <v>1057</v>
       </c>
       <c r="Q842" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R842" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="843" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S842"/>
+    </row>
+    <row r="843" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A843" s="5">
         <v>2</v>
       </c>
@@ -50219,13 +50640,14 @@
         <v>1058</v>
       </c>
       <c r="Q843" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R843" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="844" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S843"/>
+    </row>
+    <row r="844" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A844" s="5">
         <v>2</v>
       </c>
@@ -50257,13 +50679,14 @@
         <v>1059</v>
       </c>
       <c r="Q844" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R844" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="845" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S844"/>
+    </row>
+    <row r="845" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A845" s="5">
         <v>2</v>
       </c>
@@ -50295,13 +50718,14 @@
         <v>1060</v>
       </c>
       <c r="Q845" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R845" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="846" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S845"/>
+    </row>
+    <row r="846" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A846" s="5">
         <v>2</v>
       </c>
@@ -50333,13 +50757,14 @@
         <v>1061</v>
       </c>
       <c r="Q846" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R846" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="847" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S846"/>
+    </row>
+    <row r="847" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A847" s="5">
         <v>2</v>
       </c>
@@ -50371,13 +50796,14 @@
         <v>1062</v>
       </c>
       <c r="Q847" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R847" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="848" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S847"/>
+    </row>
+    <row r="848" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A848" s="5">
         <v>2</v>
       </c>
@@ -50409,13 +50835,14 @@
         <v>1063</v>
       </c>
       <c r="Q848" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R848" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="849" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S848"/>
+    </row>
+    <row r="849" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A849" s="5">
         <v>2</v>
       </c>
@@ -50447,13 +50874,14 @@
         <v>1064</v>
       </c>
       <c r="Q849" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R849" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="850" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S849"/>
+    </row>
+    <row r="850" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A850" s="5">
         <v>2</v>
       </c>
@@ -50485,13 +50913,14 @@
         <v>1065</v>
       </c>
       <c r="Q850" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R850" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="851" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S850"/>
+    </row>
+    <row r="851" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A851" s="5">
         <v>2</v>
       </c>
@@ -50523,13 +50952,14 @@
         <v>1066</v>
       </c>
       <c r="Q851" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R851" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="852" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S851"/>
+    </row>
+    <row r="852" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A852" s="5">
         <v>2</v>
       </c>
@@ -50561,13 +50991,14 @@
         <v>1067</v>
       </c>
       <c r="Q852" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R852" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="853" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S852"/>
+    </row>
+    <row r="853" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A853" s="5">
         <v>2</v>
       </c>
@@ -50599,13 +51030,14 @@
         <v>1068</v>
       </c>
       <c r="Q853" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R853" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="854" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S853"/>
+    </row>
+    <row r="854" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A854" s="5">
         <v>2</v>
       </c>
@@ -50637,13 +51069,14 @@
         <v>1069</v>
       </c>
       <c r="Q854" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R854" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="855" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S854"/>
+    </row>
+    <row r="855" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A855" s="5">
         <v>2</v>
       </c>
@@ -50675,13 +51108,14 @@
         <v>1070</v>
       </c>
       <c r="Q855" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R855" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="856" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S855"/>
+    </row>
+    <row r="856" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A856" s="5">
         <v>2</v>
       </c>
@@ -50713,13 +51147,14 @@
         <v>1071</v>
       </c>
       <c r="Q856" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R856" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="857" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S856"/>
+    </row>
+    <row r="857" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A857" s="5">
         <v>2</v>
       </c>
@@ -50751,13 +51186,14 @@
         <v>1072</v>
       </c>
       <c r="Q857" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R857" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="858" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S857"/>
+    </row>
+    <row r="858" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A858" s="5">
         <v>2</v>
       </c>
@@ -50789,13 +51225,14 @@
         <v>1073</v>
       </c>
       <c r="Q858" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R858" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="859" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S858"/>
+    </row>
+    <row r="859" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A859" s="5">
         <v>2</v>
       </c>
@@ -50827,13 +51264,14 @@
         <v>1074</v>
       </c>
       <c r="Q859" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R859" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="860" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S859"/>
+    </row>
+    <row r="860" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A860" s="5">
         <v>2</v>
       </c>
@@ -50865,13 +51303,14 @@
         <v>1075</v>
       </c>
       <c r="Q860" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R860" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="861" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S860"/>
+    </row>
+    <row r="861" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A861" s="5">
         <v>2</v>
       </c>
@@ -50903,13 +51342,14 @@
         <v>1076</v>
       </c>
       <c r="Q861" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R861" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="862" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S861"/>
+    </row>
+    <row r="862" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A862" s="5">
         <v>2</v>
       </c>
@@ -50941,13 +51381,14 @@
         <v>1077</v>
       </c>
       <c r="Q862" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R862" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="863" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S862"/>
+    </row>
+    <row r="863" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A863" s="5">
         <v>2</v>
       </c>
@@ -50979,13 +51420,14 @@
         <v>1078</v>
       </c>
       <c r="Q863" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R863" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="864" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S863"/>
+    </row>
+    <row r="864" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A864" s="5">
         <v>2</v>
       </c>
@@ -51017,13 +51459,14 @@
         <v>1079</v>
       </c>
       <c r="Q864" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R864" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="865" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S864"/>
+    </row>
+    <row r="865" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A865" s="5">
         <v>2</v>
       </c>
@@ -51055,13 +51498,14 @@
         <v>1080</v>
       </c>
       <c r="Q865" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R865" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="866" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S865"/>
+    </row>
+    <row r="866" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A866" s="5">
         <v>2</v>
       </c>
@@ -51093,13 +51537,14 @@
         <v>1081</v>
       </c>
       <c r="Q866" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R866" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="867" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S866"/>
+    </row>
+    <row r="867" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A867" s="5">
         <v>2</v>
       </c>
@@ -51131,13 +51576,14 @@
         <v>1082</v>
       </c>
       <c r="Q867" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R867" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="868" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S867"/>
+    </row>
+    <row r="868" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A868" s="5">
         <v>2</v>
       </c>
@@ -51169,13 +51615,14 @@
         <v>1083</v>
       </c>
       <c r="Q868" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R868" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="869" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S868"/>
+    </row>
+    <row r="869" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A869" s="5">
         <v>2</v>
       </c>
@@ -51207,13 +51654,14 @@
         <v>1084</v>
       </c>
       <c r="Q869" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R869" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="870" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S869"/>
+    </row>
+    <row r="870" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A870" s="5">
         <v>2</v>
       </c>
@@ -51245,13 +51693,14 @@
         <v>1085</v>
       </c>
       <c r="Q870" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R870" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="871" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S870"/>
+    </row>
+    <row r="871" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A871" s="5">
         <v>2</v>
       </c>
@@ -51283,13 +51732,14 @@
         <v>1086</v>
       </c>
       <c r="Q871" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R871" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="872" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S871"/>
+    </row>
+    <row r="872" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A872" s="5">
         <v>2</v>
       </c>
@@ -51321,13 +51771,14 @@
         <v>1087</v>
       </c>
       <c r="Q872" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R872" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="873" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S872"/>
+    </row>
+    <row r="873" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A873" s="5">
         <v>2</v>
       </c>
@@ -51359,13 +51810,14 @@
         <v>1088</v>
       </c>
       <c r="Q873" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R873" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="874" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S873"/>
+    </row>
+    <row r="874" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A874" s="5">
         <v>2</v>
       </c>
@@ -51397,13 +51849,14 @@
         <v>1089</v>
       </c>
       <c r="Q874" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R874" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="875" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S874"/>
+    </row>
+    <row r="875" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A875" s="5">
         <v>2</v>
       </c>
@@ -51435,13 +51888,14 @@
         <v>1090</v>
       </c>
       <c r="Q875" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R875" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="876" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S875"/>
+    </row>
+    <row r="876" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A876" s="5">
         <v>2</v>
       </c>
@@ -51473,13 +51927,14 @@
         <v>1091</v>
       </c>
       <c r="Q876" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R876" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="877" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S876"/>
+    </row>
+    <row r="877" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A877" s="5">
         <v>2</v>
       </c>
@@ -51511,13 +51966,14 @@
         <v>1092</v>
       </c>
       <c r="Q877" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R877" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="878" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S877"/>
+    </row>
+    <row r="878" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A878" s="5">
         <v>2</v>
       </c>
@@ -51549,13 +52005,14 @@
         <v>1093</v>
       </c>
       <c r="Q878" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R878" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="879" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S878"/>
+    </row>
+    <row r="879" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A879" s="5">
         <v>2</v>
       </c>
@@ -51587,13 +52044,14 @@
         <v>1094</v>
       </c>
       <c r="Q879" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R879" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="880" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S879"/>
+    </row>
+    <row r="880" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A880" s="5">
         <v>2</v>
       </c>
@@ -51625,13 +52083,14 @@
         <v>1095</v>
       </c>
       <c r="Q880" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R880" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="881" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S880"/>
+    </row>
+    <row r="881" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A881" s="5">
         <v>2</v>
       </c>
@@ -51663,13 +52122,14 @@
         <v>1096</v>
       </c>
       <c r="Q881" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R881" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="882" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S881"/>
+    </row>
+    <row r="882" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A882" s="5">
         <v>2</v>
       </c>
@@ -51701,13 +52161,14 @@
         <v>1097</v>
       </c>
       <c r="Q882" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R882" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="883" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S882"/>
+    </row>
+    <row r="883" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A883" s="5">
         <v>2</v>
       </c>
@@ -51739,13 +52200,14 @@
         <v>1098</v>
       </c>
       <c r="Q883" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R883" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="884" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S883"/>
+    </row>
+    <row r="884" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A884" s="5">
         <v>2</v>
       </c>
@@ -51777,13 +52239,14 @@
         <v>1099</v>
       </c>
       <c r="Q884" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R884" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="885" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S884"/>
+    </row>
+    <row r="885" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A885" s="5">
         <v>2</v>
       </c>
@@ -51815,13 +52278,14 @@
         <v>1100</v>
       </c>
       <c r="Q885" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R885" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="886" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S885"/>
+    </row>
+    <row r="886" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A886" s="5">
         <v>2</v>
       </c>
@@ -51853,13 +52317,14 @@
         <v>1101</v>
       </c>
       <c r="Q886" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R886" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="887" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S886"/>
+    </row>
+    <row r="887" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A887" s="5">
         <v>2</v>
       </c>
@@ -51891,13 +52356,14 @@
         <v>1102</v>
       </c>
       <c r="Q887" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R887" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="888" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S887"/>
+    </row>
+    <row r="888" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A888" s="5">
         <v>2</v>
       </c>
@@ -51929,13 +52395,14 @@
         <v>1103</v>
       </c>
       <c r="Q888" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R888" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="889" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S888"/>
+    </row>
+    <row r="889" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A889" s="5">
         <v>2</v>
       </c>
@@ -51967,13 +52434,14 @@
         <v>1104</v>
       </c>
       <c r="Q889" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R889" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="890" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S889"/>
+    </row>
+    <row r="890" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A890" s="5">
         <v>2</v>
       </c>
@@ -52005,13 +52473,14 @@
         <v>1105</v>
       </c>
       <c r="Q890" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R890" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="891" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S890"/>
+    </row>
+    <row r="891" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A891" s="5">
         <v>2</v>
       </c>
@@ -52043,13 +52512,14 @@
         <v>1106</v>
       </c>
       <c r="Q891" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R891" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="892" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S891"/>
+    </row>
+    <row r="892" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A892" s="5">
         <v>2</v>
       </c>
@@ -52081,13 +52551,14 @@
         <v>1107</v>
       </c>
       <c r="Q892" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R892" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="893" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S892"/>
+    </row>
+    <row r="893" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A893" s="5">
         <v>2</v>
       </c>
@@ -52119,13 +52590,14 @@
         <v>1108</v>
       </c>
       <c r="Q893" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R893" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="894" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S893"/>
+    </row>
+    <row r="894" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A894" s="5">
         <v>2</v>
       </c>
@@ -52157,13 +52629,14 @@
         <v>1109</v>
       </c>
       <c r="Q894" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R894" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="895" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S894"/>
+    </row>
+    <row r="895" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A895" s="5">
         <v>2</v>
       </c>
@@ -52195,13 +52668,14 @@
         <v>1110</v>
       </c>
       <c r="Q895" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R895" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="896" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S895"/>
+    </row>
+    <row r="896" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A896" s="5">
         <v>2</v>
       </c>
@@ -52233,13 +52707,14 @@
         <v>1111</v>
       </c>
       <c r="Q896" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R896" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="897" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S896"/>
+    </row>
+    <row r="897" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A897" s="5">
         <v>2</v>
       </c>
@@ -52271,13 +52746,14 @@
         <v>1112</v>
       </c>
       <c r="Q897" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R897" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="898" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S897"/>
+    </row>
+    <row r="898" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A898" s="5">
         <v>2</v>
       </c>
@@ -52309,13 +52785,14 @@
         <v>1113</v>
       </c>
       <c r="Q898" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R898" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="899" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S898"/>
+    </row>
+    <row r="899" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A899" s="5">
         <v>2</v>
       </c>
@@ -52347,13 +52824,14 @@
         <v>1114</v>
       </c>
       <c r="Q899" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R899" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="900" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S899"/>
+    </row>
+    <row r="900" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A900" s="5">
         <v>2</v>
       </c>
@@ -52385,13 +52863,14 @@
         <v>1115</v>
       </c>
       <c r="Q900" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R900" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="901" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S900"/>
+    </row>
+    <row r="901" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A901" s="5">
         <v>2</v>
       </c>
@@ -52423,13 +52902,14 @@
         <v>1116</v>
       </c>
       <c r="Q901" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R901" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="902" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S901"/>
+    </row>
+    <row r="902" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A902" s="5">
         <v>2</v>
       </c>
@@ -52461,13 +52941,14 @@
         <v>1117</v>
       </c>
       <c r="Q902" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R902" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="903" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S902"/>
+    </row>
+    <row r="903" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A903" s="5">
         <v>2</v>
       </c>
@@ -52499,13 +52980,14 @@
         <v>1049</v>
       </c>
       <c r="Q903" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R903" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="904" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S903"/>
+    </row>
+    <row r="904" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A904" s="5">
         <v>2</v>
       </c>
@@ -52537,13 +53019,14 @@
         <v>1118</v>
       </c>
       <c r="Q904" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R904" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="905" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S904"/>
+    </row>
+    <row r="905" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A905" s="5">
         <v>2</v>
       </c>
@@ -52575,13 +53058,14 @@
         <v>1119</v>
       </c>
       <c r="Q905" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R905" s="5" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="906" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S905"/>
+    </row>
+    <row r="906" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A906" s="5">
         <v>2</v>
       </c>
@@ -52613,10 +53097,16 @@
         <v>1048</v>
       </c>
       <c r="Q906" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R906" s="5" t="s">
         <v>1146</v>
+      </c>
+      <c r="S906"/>
+    </row>
+    <row r="907" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q907">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SourceData/budgetmapping/BGModData.xlsx
+++ b/SourceData/budgetmapping/BGModData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\SpectrumEngine\DefaultData\SourceData\budgetmapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5674B31-915C-4284-A473-F6B277EFFFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE6FE30-314B-4BE2-89E7-D525D13D58DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1095" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BudgetDB" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="FundingSourceDB Fake" sheetId="9" r:id="rId9"/>
     <sheet name="Tags" sheetId="1" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8304" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8346" uniqueCount="1161">
   <si>
     <t>TG_AggregateConstant</t>
   </si>
@@ -5297,8 +5297,8 @@
   <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G202" sqref="G202"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9970,12 +9970,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEB4B75-3B81-4BF7-80FE-92A0D4964378}">
-  <dimension ref="A1:S907"/>
+  <dimension ref="A1:S913"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A886" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="R902" sqref="R902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49041,10 +49041,10 @@
         <v>1089</v>
       </c>
       <c r="Q802" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R802" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S802"/>
     </row>
@@ -49080,10 +49080,10 @@
         <v>1090</v>
       </c>
       <c r="Q803" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R803" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S803"/>
     </row>
@@ -49119,10 +49119,10 @@
         <v>1091</v>
       </c>
       <c r="Q804" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R804" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S804"/>
     </row>
@@ -49158,10 +49158,10 @@
         <v>1092</v>
       </c>
       <c r="Q805" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R805" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S805"/>
     </row>
@@ -49197,10 +49197,10 @@
         <v>1093</v>
       </c>
       <c r="Q806" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R806" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S806"/>
     </row>
@@ -53105,8 +53105,269 @@
       <c r="S906"/>
     </row>
     <row r="907" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A907" s="5">
+        <v>2</v>
+      </c>
+      <c r="B907" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C907" s="5">
+        <v>2</v>
+      </c>
+      <c r="D907" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E907" s="5">
+        <v>20</v>
+      </c>
+      <c r="F907" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G907">
+        <v>4</v>
+      </c>
+      <c r="H907" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I907" s="5">
+        <v>1</v>
+      </c>
+      <c r="J907" s="5" t="s">
+        <v>1128</v>
+      </c>
       <c r="Q907">
         <v>1</v>
+      </c>
+      <c r="R907" s="5" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="908" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A908" s="5">
+        <v>2</v>
+      </c>
+      <c r="B908" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C908" s="5">
+        <v>2</v>
+      </c>
+      <c r="D908" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E908" s="5">
+        <v>20</v>
+      </c>
+      <c r="F908" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G908">
+        <v>4</v>
+      </c>
+      <c r="H908" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I908" s="5">
+        <v>2</v>
+      </c>
+      <c r="J908" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q908" s="5">
+        <v>2</v>
+      </c>
+      <c r="R908" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="909" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A909" s="5">
+        <v>2</v>
+      </c>
+      <c r="B909" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C909" s="5">
+        <v>2</v>
+      </c>
+      <c r="D909" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E909" s="5">
+        <v>20</v>
+      </c>
+      <c r="F909" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G909">
+        <v>4</v>
+      </c>
+      <c r="H909" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I909" s="5">
+        <v>3</v>
+      </c>
+      <c r="J909" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q909" s="5">
+        <v>2</v>
+      </c>
+      <c r="R909" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="910" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A910" s="5">
+        <v>2</v>
+      </c>
+      <c r="B910" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C910" s="5">
+        <v>2</v>
+      </c>
+      <c r="D910" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E910" s="5">
+        <v>20</v>
+      </c>
+      <c r="F910" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G910">
+        <v>4</v>
+      </c>
+      <c r="H910" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I910" s="5">
+        <v>4</v>
+      </c>
+      <c r="J910" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q910" s="5">
+        <v>2</v>
+      </c>
+      <c r="R910" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="911" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A911" s="5">
+        <v>2</v>
+      </c>
+      <c r="B911" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C911" s="5">
+        <v>2</v>
+      </c>
+      <c r="D911" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E911" s="5">
+        <v>20</v>
+      </c>
+      <c r="F911" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G911">
+        <v>4</v>
+      </c>
+      <c r="H911" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I911" s="5">
+        <v>6</v>
+      </c>
+      <c r="J911" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q911" s="5">
+        <v>2</v>
+      </c>
+      <c r="R911" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="912" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A912" s="5">
+        <v>2</v>
+      </c>
+      <c r="B912" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C912" s="5">
+        <v>2</v>
+      </c>
+      <c r="D912" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E912" s="5">
+        <v>20</v>
+      </c>
+      <c r="F912" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G912">
+        <v>4</v>
+      </c>
+      <c r="H912" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I912" s="5">
+        <v>7</v>
+      </c>
+      <c r="J912" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q912" s="5">
+        <v>2</v>
+      </c>
+      <c r="R912" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="913" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A913" s="5">
+        <v>2</v>
+      </c>
+      <c r="B913" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C913" s="5">
+        <v>2</v>
+      </c>
+      <c r="D913" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E913" s="5">
+        <v>20</v>
+      </c>
+      <c r="F913" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G913">
+        <v>4</v>
+      </c>
+      <c r="H913" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I913" s="5">
+        <v>8</v>
+      </c>
+      <c r="J913" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q913" s="5">
+        <v>2</v>
+      </c>
+      <c r="R913" t="s">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
